--- a/raw_data/20200818_saline/20200818_Sensor2_Test_59.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_59.xlsx
@@ -1,1022 +1,1438 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF9D74A-4532-41CC-86B4-8E3915C4A31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>52572.633515</v>
+        <v>52572.633515000001</v>
       </c>
       <c r="B2" s="1">
-        <v>14.603509</v>
+        <v>14.603509000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1240.840000</v>
+        <v>1240.8399999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-302.254000</v>
+        <v>-302.25400000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>52583.034621</v>
+        <v>52583.034620999999</v>
       </c>
       <c r="G2" s="1">
         <v>14.606399</v>
       </c>
       <c r="H2" s="1">
-        <v>1266.490000</v>
+        <v>1266.49</v>
       </c>
       <c r="I2" s="1">
-        <v>-261.787000</v>
+        <v>-261.78699999999998</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>52594.176751</v>
+        <v>52594.176750999999</v>
       </c>
       <c r="L2" s="1">
         <v>14.609494</v>
       </c>
       <c r="M2" s="1">
-        <v>1300.780000</v>
+        <v>1300.78</v>
       </c>
       <c r="N2" s="1">
-        <v>-200.768000</v>
+        <v>-200.768</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>52604.637376</v>
+        <v>52604.637375999999</v>
       </c>
       <c r="Q2" s="1">
         <v>14.612399</v>
       </c>
       <c r="R2" s="1">
-        <v>1312.790000</v>
+        <v>1312.79</v>
       </c>
       <c r="S2" s="1">
-        <v>-183.411000</v>
+        <v>-183.411</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>52615.201666</v>
+        <v>52615.201666000001</v>
       </c>
       <c r="V2" s="1">
-        <v>14.615334</v>
+        <v>14.615334000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1326.250000</v>
+        <v>1326.25</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.204000</v>
+        <v>-170.20400000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>52625.587424</v>
+        <v>52625.587423999998</v>
       </c>
       <c r="AA2" s="1">
         <v>14.618219</v>
       </c>
       <c r="AB2" s="1">
-        <v>1343.370000</v>
+        <v>1343.37</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.203000</v>
+        <v>-168.203</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>52636.165116</v>
+        <v>52636.165115999996</v>
       </c>
       <c r="AF2" s="1">
         <v>14.621157</v>
       </c>
       <c r="AG2" s="1">
-        <v>1356.420000</v>
+        <v>1356.42</v>
       </c>
       <c r="AH2" s="1">
-        <v>-177.951000</v>
+        <v>-177.95099999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>52647.247690</v>
+        <v>52647.247689999997</v>
       </c>
       <c r="AK2" s="1">
-        <v>14.624235</v>
+        <v>14.624235000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1377.040000</v>
+        <v>1377.04</v>
       </c>
       <c r="AM2" s="1">
-        <v>-207.788000</v>
+        <v>-207.78800000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>52657.574922</v>
       </c>
       <c r="AP2" s="1">
-        <v>14.627104</v>
+        <v>14.627103999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1398.780000</v>
+        <v>1398.78</v>
       </c>
       <c r="AR2" s="1">
-        <v>-251.478000</v>
+        <v>-251.47800000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>52668.226017</v>
+        <v>52668.226017000001</v>
       </c>
       <c r="AU2" s="1">
         <v>14.630063</v>
       </c>
       <c r="AV2" s="1">
-        <v>1423.450000</v>
+        <v>1423.45</v>
       </c>
       <c r="AW2" s="1">
-        <v>-311.134000</v>
+        <v>-311.13400000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>52678.541775</v>
+        <v>52678.541774999998</v>
       </c>
       <c r="AZ2" s="1">
         <v>14.632928</v>
       </c>
       <c r="BA2" s="1">
-        <v>1442.910000</v>
+        <v>1442.91</v>
       </c>
       <c r="BB2" s="1">
-        <v>-362.920000</v>
+        <v>-362.92</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>52689.178481</v>
+        <v>52689.178481000003</v>
       </c>
       <c r="BE2" s="1">
         <v>14.635883</v>
       </c>
       <c r="BF2" s="1">
-        <v>1528.740000</v>
+        <v>1528.74</v>
       </c>
       <c r="BG2" s="1">
-        <v>-609.242000</v>
+        <v>-609.24199999999996</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>52700.193666</v>
+        <v>52700.193665999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>14.638943</v>
+        <v>14.638942999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1684.000000</v>
+        <v>1684</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1049.930000</v>
+        <v>-1049.93</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>52711.241560</v>
+        <v>52711.241560000002</v>
       </c>
       <c r="BO2" s="1">
-        <v>14.642012</v>
+        <v>14.642011999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1979.290000</v>
+        <v>1979.29</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1811.320000</v>
+        <v>-1811.32</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>52721.574711</v>
+        <v>52721.574711000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>14.644882</v>
+        <v>14.644882000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>2365.410000</v>
+        <v>2365.41</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2690.220000</v>
+        <v>-2690.22</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>52732.064104</v>
+        <v>52732.064103999997</v>
       </c>
       <c r="BY2" s="1">
         <v>14.647796</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2849.850000</v>
+        <v>2849.85</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3642.640000</v>
+        <v>-3642.64</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>52743.007833</v>
+        <v>52743.007833000003</v>
       </c>
       <c r="CD2" s="1">
         <v>14.650836</v>
       </c>
       <c r="CE2" s="1">
-        <v>4273.800000</v>
+        <v>4273.8</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5937.630000</v>
+        <v>-5937.63</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>52573.362138</v>
+        <v>52573.362137999997</v>
       </c>
       <c r="B3" s="1">
         <v>14.603712</v>
       </c>
       <c r="C3" s="1">
-        <v>1240.600000</v>
+        <v>1240.5999999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-302.516000</v>
+        <v>-302.51600000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>52583.759773</v>
+        <v>52583.759772999998</v>
       </c>
       <c r="G3" s="1">
-        <v>14.606600</v>
+        <v>14.6066</v>
       </c>
       <c r="H3" s="1">
-        <v>1264.490000</v>
+        <v>1264.49</v>
       </c>
       <c r="I3" s="1">
-        <v>-262.528000</v>
+        <v>-262.52800000000002</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>52594.514030</v>
+        <v>52594.514029999998</v>
       </c>
       <c r="L3" s="1">
-        <v>14.609587</v>
+        <v>14.609586999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1300.740000</v>
+        <v>1300.74</v>
       </c>
       <c r="N3" s="1">
-        <v>-201.212000</v>
+        <v>-201.21199999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>52605.008912</v>
+        <v>52605.008911999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>14.612502</v>
+        <v>14.612501999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1312.830000</v>
+        <v>1312.83</v>
       </c>
       <c r="S3" s="1">
-        <v>-183.364000</v>
+        <v>-183.364</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>52615.549399</v>
+        <v>52615.549399000003</v>
       </c>
       <c r="V3" s="1">
-        <v>14.615430</v>
+        <v>14.61543</v>
       </c>
       <c r="W3" s="1">
-        <v>1325.950000</v>
+        <v>1325.95</v>
       </c>
       <c r="X3" s="1">
-        <v>-170.121000</v>
+        <v>-170.12100000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>52626.282787</v>
+        <v>52626.282786999996</v>
       </c>
       <c r="AA3" s="1">
-        <v>14.618412</v>
+        <v>14.618411999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1343.420000</v>
+        <v>1343.42</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.242000</v>
+        <v>-168.24199999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>52636.865430</v>
+        <v>52636.865429999998</v>
       </c>
       <c r="AF3" s="1">
         <v>14.621352</v>
       </c>
       <c r="AG3" s="1">
-        <v>1356.440000</v>
+        <v>1356.44</v>
       </c>
       <c r="AH3" s="1">
-        <v>-177.883000</v>
+        <v>-177.88300000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>52647.664363</v>
+        <v>52647.664363000004</v>
       </c>
       <c r="AK3" s="1">
-        <v>14.624351</v>
+        <v>14.624351000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1377.060000</v>
+        <v>1377.06</v>
       </c>
       <c r="AM3" s="1">
-        <v>-207.834000</v>
+        <v>-207.834</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>52657.940970</v>
+        <v>52657.940970000003</v>
       </c>
       <c r="AP3" s="1">
-        <v>14.627206</v>
+        <v>14.627205999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1398.790000</v>
+        <v>1398.79</v>
       </c>
       <c r="AR3" s="1">
-        <v>-251.470000</v>
+        <v>-251.47</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>52668.594044</v>
+        <v>52668.594043999998</v>
       </c>
       <c r="AU3" s="1">
         <v>14.630165</v>
       </c>
       <c r="AV3" s="1">
-        <v>1423.450000</v>
+        <v>1423.45</v>
       </c>
       <c r="AW3" s="1">
-        <v>-311.153000</v>
+        <v>-311.15300000000002</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>52678.923200</v>
+        <v>52678.923199999997</v>
       </c>
       <c r="AZ3" s="1">
         <v>14.633034</v>
       </c>
       <c r="BA3" s="1">
-        <v>1442.930000</v>
+        <v>1442.93</v>
       </c>
       <c r="BB3" s="1">
-        <v>-362.950000</v>
+        <v>-362.95</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>52689.846633</v>
+        <v>52689.846633000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>14.636069</v>
+        <v>14.636069000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1528.700000</v>
+        <v>1528.7</v>
       </c>
       <c r="BG3" s="1">
-        <v>-609.308000</v>
+        <v>-609.30799999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>52700.608787</v>
+        <v>52700.608786999997</v>
       </c>
       <c r="BJ3" s="1">
         <v>14.639058</v>
       </c>
       <c r="BK3" s="1">
-        <v>1683.800000</v>
+        <v>1683.8</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1050.000000</v>
+        <v>-1050</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>52711.361061</v>
+        <v>52711.361061000003</v>
       </c>
       <c r="BO3" s="1">
         <v>14.642045</v>
       </c>
       <c r="BP3" s="1">
-        <v>1979.110000</v>
+        <v>1979.11</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1811.550000</v>
+        <v>-1811.55</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>52721.766134</v>
+        <v>52721.766133999998</v>
       </c>
       <c r="BT3" s="1">
         <v>14.644935</v>
       </c>
       <c r="BU3" s="1">
-        <v>2365.580000</v>
+        <v>2365.58</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2690.390000</v>
+        <v>-2690.39</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>52732.527369</v>
+        <v>52732.527369000003</v>
       </c>
       <c r="BY3" s="1">
         <v>14.647924</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2849.420000</v>
+        <v>2849.42</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3643.020000</v>
+        <v>-3643.02</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>52743.576248</v>
+        <v>52743.576247999998</v>
       </c>
       <c r="CD3" s="1">
         <v>14.650993</v>
       </c>
       <c r="CE3" s="1">
-        <v>4273.870000</v>
+        <v>4273.87</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5941.950000</v>
+        <v>-5941.95</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>52573.699417</v>
+        <v>52573.699417000003</v>
       </c>
       <c r="B4" s="1">
-        <v>14.603805</v>
+        <v>14.603804999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1240.890000</v>
+        <v>1240.8900000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-302.471000</v>
+        <v>-302.471</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>52584.101516</v>
+        <v>52584.101516000002</v>
       </c>
       <c r="G4" s="1">
         <v>14.606695</v>
       </c>
       <c r="H4" s="1">
-        <v>1265.250000</v>
+        <v>1265.25</v>
       </c>
       <c r="I4" s="1">
-        <v>-262.572000</v>
+        <v>-262.572</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>52594.859245</v>
@@ -1025,390 +1441,390 @@
         <v>14.609683</v>
       </c>
       <c r="M4" s="1">
-        <v>1300.860000</v>
+        <v>1300.8599999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-201.025000</v>
+        <v>-201.02500000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>52605.669086</v>
+        <v>52605.669086000002</v>
       </c>
       <c r="Q4" s="1">
         <v>14.612686</v>
       </c>
       <c r="R4" s="1">
-        <v>1312.810000</v>
+        <v>1312.81</v>
       </c>
       <c r="S4" s="1">
-        <v>-183.260000</v>
+        <v>-183.26</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>52616.202134</v>
+        <v>52616.202133999999</v>
       </c>
       <c r="V4" s="1">
         <v>14.615612</v>
       </c>
       <c r="W4" s="1">
-        <v>1326.060000</v>
+        <v>1326.06</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.000000</v>
+        <v>-170</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>52626.659251</v>
+        <v>52626.659250999997</v>
       </c>
       <c r="AA4" s="1">
         <v>14.618516</v>
       </c>
       <c r="AB4" s="1">
-        <v>1343.480000</v>
+        <v>1343.48</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.194000</v>
+        <v>-168.19399999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>52637.237431</v>
+        <v>52637.237431000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>14.621455</v>
+        <v>14.621454999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1356.560000</v>
+        <v>1356.56</v>
       </c>
       <c r="AH4" s="1">
-        <v>-177.894000</v>
+        <v>-177.89400000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>52648.012023</v>
+        <v>52648.012023000003</v>
       </c>
       <c r="AK4" s="1">
-        <v>14.624448</v>
+        <v>14.624447999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1377.070000</v>
+        <v>1377.07</v>
       </c>
       <c r="AM4" s="1">
-        <v>-207.784000</v>
+        <v>-207.78399999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>52658.296601</v>
+        <v>52658.296601000002</v>
       </c>
       <c r="AP4" s="1">
         <v>14.627305</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1398.710000</v>
+        <v>1398.71</v>
       </c>
       <c r="AR4" s="1">
-        <v>-251.471000</v>
+        <v>-251.471</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>52668.956620</v>
+        <v>52668.956619999997</v>
       </c>
       <c r="AU4" s="1">
-        <v>14.630266</v>
+        <v>14.630266000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1423.410000</v>
+        <v>1423.41</v>
       </c>
       <c r="AW4" s="1">
-        <v>-311.139000</v>
+        <v>-311.13900000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>52679.342318</v>
+        <v>52679.342318000003</v>
       </c>
       <c r="AZ4" s="1">
         <v>14.633151</v>
       </c>
       <c r="BA4" s="1">
-        <v>1442.880000</v>
+        <v>1442.88</v>
       </c>
       <c r="BB4" s="1">
-        <v>-362.917000</v>
+        <v>-362.91699999999997</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>52690.267696</v>
+        <v>52690.267696000003</v>
       </c>
       <c r="BE4" s="1">
-        <v>14.636185</v>
+        <v>14.636184999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1528.650000</v>
+        <v>1528.65</v>
       </c>
       <c r="BG4" s="1">
-        <v>-609.291000</v>
+        <v>-609.29100000000005</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>52700.973346</v>
+        <v>52700.973345999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>14.639159</v>
+        <v>14.639158999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1683.780000</v>
+        <v>1683.78</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1049.840000</v>
+        <v>-1049.8399999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>52711.771747</v>
+        <v>52711.771746999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>14.642159</v>
+        <v>14.642158999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1979.230000</v>
+        <v>1979.23</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1811.460000</v>
+        <v>-1811.46</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>52722.194181</v>
+        <v>52722.194180999999</v>
       </c>
       <c r="BT4" s="1">
         <v>14.645054</v>
       </c>
       <c r="BU4" s="1">
-        <v>2366.070000</v>
+        <v>2366.0700000000002</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2690.930000</v>
+        <v>-2690.93</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>52732.975752</v>
+        <v>52732.975751999998</v>
       </c>
       <c r="BY4" s="1">
         <v>14.648049</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2850.780000</v>
+        <v>2850.78</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3643.380000</v>
+        <v>-3643.38</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>52744.094536</v>
+        <v>52744.094535999997</v>
       </c>
       <c r="CD4" s="1">
         <v>14.651137</v>
       </c>
       <c r="CE4" s="1">
-        <v>4272.050000</v>
+        <v>4272.05</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5925.460000</v>
+        <v>-5925.46</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>52574.044138</v>
+        <v>52574.044137999997</v>
       </c>
       <c r="B5" s="1">
         <v>14.603901</v>
       </c>
       <c r="C5" s="1">
-        <v>1240.230000</v>
+        <v>1240.23</v>
       </c>
       <c r="D5" s="1">
-        <v>-302.346000</v>
+        <v>-302.346</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>52584.451691</v>
+        <v>52584.451691000002</v>
       </c>
       <c r="G5" s="1">
         <v>14.606792</v>
       </c>
       <c r="H5" s="1">
-        <v>1265.430000</v>
+        <v>1265.43</v>
       </c>
       <c r="I5" s="1">
-        <v>-261.003000</v>
+        <v>-261.00299999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>52595.515452</v>
       </c>
       <c r="L5" s="1">
-        <v>14.609865</v>
+        <v>14.609864999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1300.620000</v>
+        <v>1300.6199999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-200.871000</v>
+        <v>-200.87100000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>52606.052958</v>
       </c>
       <c r="Q5" s="1">
-        <v>14.612792</v>
+        <v>14.612792000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1312.870000</v>
+        <v>1312.87</v>
       </c>
       <c r="S5" s="1">
-        <v>-183.292000</v>
+        <v>-183.292</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>52616.579084</v>
+        <v>52616.579083999997</v>
       </c>
       <c r="V5" s="1">
-        <v>14.615716</v>
+        <v>14.615716000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1326.230000</v>
+        <v>1326.23</v>
       </c>
       <c r="X5" s="1">
-        <v>-170.210000</v>
+        <v>-170.21</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>52627.007474</v>
+        <v>52627.007473999998</v>
       </c>
       <c r="AA5" s="1">
         <v>14.618613</v>
       </c>
       <c r="AB5" s="1">
-        <v>1343.560000</v>
+        <v>1343.56</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.104000</v>
+        <v>-168.10400000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>52637.581158</v>
+        <v>52637.581158000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>14.621550</v>
+        <v>14.621549999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1356.600000</v>
+        <v>1356.6</v>
       </c>
       <c r="AH5" s="1">
-        <v>-177.908000</v>
+        <v>-177.90799999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>52648.361702</v>
+        <v>52648.361702000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>14.624545</v>
+        <v>14.624544999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1377.030000</v>
+        <v>1377.03</v>
       </c>
       <c r="AM5" s="1">
-        <v>-207.777000</v>
+        <v>-207.77699999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>52658.718201</v>
+        <v>52658.718201000003</v>
       </c>
       <c r="AP5" s="1">
-        <v>14.627422</v>
+        <v>14.627421999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1398.770000</v>
+        <v>1398.77</v>
       </c>
       <c r="AR5" s="1">
-        <v>-251.445000</v>
+        <v>-251.44499999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>52669.368268</v>
+        <v>52669.368267999998</v>
       </c>
       <c r="AU5" s="1">
-        <v>14.630380</v>
+        <v>14.630380000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1423.450000</v>
+        <v>1423.45</v>
       </c>
       <c r="AW5" s="1">
-        <v>-311.146000</v>
+        <v>-311.14600000000002</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>52679.639917</v>
       </c>
       <c r="AZ5" s="1">
-        <v>14.633233</v>
+        <v>14.633233000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1442.900000</v>
+        <v>1442.9</v>
       </c>
       <c r="BB5" s="1">
-        <v>-362.904000</v>
+        <v>-362.904</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>52690.654575</v>
@@ -1417,195 +1833,195 @@
         <v>14.636293</v>
       </c>
       <c r="BF5" s="1">
-        <v>1528.700000</v>
+        <v>1528.7</v>
       </c>
       <c r="BG5" s="1">
-        <v>-609.300000</v>
+        <v>-609.29999999999995</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>52701.348322</v>
+        <v>52701.348321999998</v>
       </c>
       <c r="BJ5" s="1">
         <v>14.639263</v>
       </c>
       <c r="BK5" s="1">
-        <v>1683.820000</v>
+        <v>1683.82</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1049.980000</v>
+        <v>-1049.98</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>52712.164593</v>
+        <v>52712.164593000001</v>
       </c>
       <c r="BO5" s="1">
         <v>14.642268</v>
       </c>
       <c r="BP5" s="1">
-        <v>1978.990000</v>
+        <v>1978.99</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1811.660000</v>
+        <v>-1811.66</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>52722.605897</v>
+        <v>52722.605897000001</v>
       </c>
       <c r="BT5" s="1">
         <v>14.645168</v>
       </c>
       <c r="BU5" s="1">
-        <v>2366.330000</v>
+        <v>2366.33</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2691.020000</v>
+        <v>-2691.02</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>52733.408726</v>
+        <v>52733.408726000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>14.648169</v>
+        <v>14.648168999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2850.490000</v>
+        <v>2850.49</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3642.810000</v>
+        <v>-3642.81</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>52744.613849</v>
+        <v>52744.613849000001</v>
       </c>
       <c r="CD5" s="1">
         <v>14.651282</v>
       </c>
       <c r="CE5" s="1">
-        <v>4272.120000</v>
+        <v>4272.12</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5933.560000</v>
+        <v>-5933.56</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>52574.701336</v>
+        <v>52574.701335999998</v>
       </c>
       <c r="B6" s="1">
         <v>14.604084</v>
       </c>
       <c r="C6" s="1">
-        <v>1240.610000</v>
+        <v>1240.6099999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-302.352000</v>
+        <v>-302.35199999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>52585.100495</v>
+        <v>52585.100494999999</v>
       </c>
       <c r="G6" s="1">
-        <v>14.606972</v>
+        <v>14.606972000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1265.560000</v>
+        <v>1265.56</v>
       </c>
       <c r="I6" s="1">
-        <v>-261.488000</v>
+        <v>-261.488</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>52595.897906</v>
+        <v>52595.897905999998</v>
       </c>
       <c r="L6" s="1">
-        <v>14.609972</v>
+        <v>14.609972000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1300.830000</v>
+        <v>1300.83</v>
       </c>
       <c r="N6" s="1">
-        <v>-200.889000</v>
+        <v>-200.88900000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>52606.401646</v>
+        <v>52606.401645999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>14.612889</v>
+        <v>14.612888999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1312.890000</v>
+        <v>1312.89</v>
       </c>
       <c r="S6" s="1">
-        <v>-183.371000</v>
+        <v>-183.37100000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>52616.921296</v>
       </c>
       <c r="V6" s="1">
-        <v>14.615811</v>
+        <v>14.615811000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1326.150000</v>
+        <v>1326.15</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.066000</v>
+        <v>-170.066</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>52627.358611</v>
+        <v>52627.358611000003</v>
       </c>
       <c r="AA6" s="1">
-        <v>14.618711</v>
+        <v>14.618710999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1343.310000</v>
+        <v>1343.31</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.182000</v>
+        <v>-168.18199999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>52637.925382</v>
+        <v>52637.925382000001</v>
       </c>
       <c r="AF6" s="1">
         <v>14.621646</v>
       </c>
       <c r="AG6" s="1">
-        <v>1356.500000</v>
+        <v>1356.5</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.017000</v>
+        <v>-178.017</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>52648.780326</v>
@@ -1614,58 +2030,58 @@
         <v>14.624661</v>
       </c>
       <c r="AL6" s="1">
-        <v>1377.040000</v>
+        <v>1377.04</v>
       </c>
       <c r="AM6" s="1">
-        <v>-207.792000</v>
+        <v>-207.792</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>52659.018250</v>
+        <v>52659.018250000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>14.627505</v>
+        <v>14.627504999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1398.790000</v>
+        <v>1398.79</v>
       </c>
       <c r="AR6" s="1">
-        <v>-251.499000</v>
+        <v>-251.499</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>52669.686239</v>
+        <v>52669.686239000002</v>
       </c>
       <c r="AU6" s="1">
         <v>14.630468</v>
       </c>
       <c r="AV6" s="1">
-        <v>1423.450000</v>
+        <v>1423.45</v>
       </c>
       <c r="AW6" s="1">
-        <v>-311.160000</v>
+        <v>-311.16000000000003</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>52680.000541</v>
+        <v>52680.000541000001</v>
       </c>
       <c r="AZ6" s="1">
         <v>14.633333</v>
       </c>
       <c r="BA6" s="1">
-        <v>1442.890000</v>
+        <v>1442.89</v>
       </c>
       <c r="BB6" s="1">
-        <v>-362.899000</v>
+        <v>-362.899</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>52691.014206</v>
@@ -1674,709 +2090,709 @@
         <v>14.636393</v>
       </c>
       <c r="BF6" s="1">
-        <v>1528.690000</v>
+        <v>1528.69</v>
       </c>
       <c r="BG6" s="1">
-        <v>-609.263000</v>
+        <v>-609.26300000000003</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>52701.723825</v>
+        <v>52701.723825000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>14.639368</v>
+        <v>14.639367999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1683.820000</v>
+        <v>1683.82</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1049.830000</v>
+        <v>-1049.83</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>52712.585688</v>
+        <v>52712.585687999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>14.642385</v>
+        <v>14.642385000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1978.950000</v>
+        <v>1978.95</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1811.480000</v>
+        <v>-1811.48</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>52723.035435</v>
+        <v>52723.035434999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>14.645288</v>
+        <v>14.645288000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>2366.720000</v>
+        <v>2366.7199999999998</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2691.060000</v>
+        <v>-2691.06</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>52733.828342</v>
+        <v>52733.828342000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>14.648286</v>
+        <v>14.648286000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2849.870000</v>
+        <v>2849.87</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3643.010000</v>
+        <v>-3643.01</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>52745.163448</v>
+        <v>52745.163447999999</v>
       </c>
       <c r="CD6" s="1">
         <v>14.651434</v>
       </c>
       <c r="CE6" s="1">
-        <v>4272.210000</v>
+        <v>4272.21</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5942.970000</v>
+        <v>-5942.97</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>52575.064904</v>
+        <v>52575.064903999999</v>
       </c>
       <c r="B7" s="1">
-        <v>14.604185</v>
+        <v>14.604184999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1240.770000</v>
+        <v>1240.77</v>
       </c>
       <c r="D7" s="1">
-        <v>-302.503000</v>
+        <v>-302.50299999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>52585.484898</v>
+        <v>52585.484898000002</v>
       </c>
       <c r="G7" s="1">
-        <v>14.607079</v>
+        <v>14.607079000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1265.970000</v>
+        <v>1265.97</v>
       </c>
       <c r="I7" s="1">
-        <v>-260.770000</v>
+        <v>-260.77</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>52596.240108</v>
+        <v>52596.240107999998</v>
       </c>
       <c r="L7" s="1">
-        <v>14.610067</v>
+        <v>14.610067000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1300.800000</v>
+        <v>1300.8</v>
       </c>
       <c r="N7" s="1">
-        <v>-200.958000</v>
+        <v>-200.958</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>52606.751359</v>
+        <v>52606.751359000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>14.612986</v>
+        <v>14.612985999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1312.830000</v>
+        <v>1312.83</v>
       </c>
       <c r="S7" s="1">
-        <v>-183.331000</v>
+        <v>-183.33099999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>52617.265056</v>
+        <v>52617.265055999997</v>
       </c>
       <c r="V7" s="1">
         <v>14.615907</v>
       </c>
       <c r="W7" s="1">
-        <v>1326.020000</v>
+        <v>1326.02</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.171000</v>
+        <v>-170.17099999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>52627.781202</v>
+        <v>52627.781201999998</v>
       </c>
       <c r="AA7" s="1">
-        <v>14.618828</v>
+        <v>14.618828000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1343.420000</v>
+        <v>1343.42</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.207000</v>
+        <v>-168.20699999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>52638.614356</v>
+        <v>52638.614355999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>14.621837</v>
+        <v>14.621836999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1356.420000</v>
+        <v>1356.42</v>
       </c>
       <c r="AH7" s="1">
-        <v>-177.956000</v>
+        <v>-177.95599999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>52649.060570</v>
+        <v>52649.060570000001</v>
       </c>
       <c r="AK7" s="1">
         <v>14.624739</v>
       </c>
       <c r="AL7" s="1">
-        <v>1377.040000</v>
+        <v>1377.04</v>
       </c>
       <c r="AM7" s="1">
-        <v>-207.778000</v>
+        <v>-207.77799999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>52659.378872</v>
+        <v>52659.378872000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>14.627605</v>
+        <v>14.627605000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1398.750000</v>
+        <v>1398.75</v>
       </c>
       <c r="AR7" s="1">
-        <v>-251.501000</v>
+        <v>-251.501</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>52670.052282</v>
+        <v>52670.052281999997</v>
       </c>
       <c r="AU7" s="1">
-        <v>14.630570</v>
+        <v>14.630570000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1423.450000</v>
+        <v>1423.45</v>
       </c>
       <c r="AW7" s="1">
-        <v>-311.104000</v>
+        <v>-311.10399999999998</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>52680.360604</v>
+        <v>52680.360604000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>14.633434</v>
+        <v>14.633433999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1442.890000</v>
+        <v>1442.89</v>
       </c>
       <c r="BB7" s="1">
-        <v>-362.907000</v>
+        <v>-362.90699999999998</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>52691.736846</v>
       </c>
       <c r="BE7" s="1">
-        <v>14.636594</v>
+        <v>14.636594000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1528.660000</v>
+        <v>1528.66</v>
       </c>
       <c r="BG7" s="1">
-        <v>-609.269000</v>
+        <v>-609.26900000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>52702.132993</v>
+        <v>52702.132992999999</v>
       </c>
       <c r="BJ7" s="1">
         <v>14.639481</v>
       </c>
       <c r="BK7" s="1">
-        <v>1683.930000</v>
+        <v>1683.93</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1050.010000</v>
+        <v>-1050.01</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>52712.984962</v>
+        <v>52712.984962000002</v>
       </c>
       <c r="BO7" s="1">
         <v>14.642496</v>
       </c>
       <c r="BP7" s="1">
-        <v>1978.840000</v>
+        <v>1978.84</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1811.500000</v>
+        <v>-1811.5</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>52723.462985</v>
+        <v>52723.462984999998</v>
       </c>
       <c r="BT7" s="1">
-        <v>14.645406</v>
+        <v>14.645405999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>2367.020000</v>
+        <v>2367.02</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2690.790000</v>
+        <v>-2690.79</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>52734.250933</v>
+        <v>52734.250933000003</v>
       </c>
       <c r="BY7" s="1">
         <v>14.648403</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2850.310000</v>
+        <v>2850.31</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3643.040000</v>
+        <v>-3643.04</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>52746.005157</v>
       </c>
       <c r="CD7" s="1">
-        <v>14.651668</v>
+        <v>14.651668000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>4271.740000</v>
+        <v>4271.74</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5926.510000</v>
+        <v>-5926.51</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>52575.414088</v>
+        <v>52575.414087999998</v>
       </c>
       <c r="B8" s="1">
         <v>14.604282</v>
       </c>
       <c r="C8" s="1">
-        <v>1240.590000</v>
+        <v>1240.5899999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-302.427000</v>
+        <v>-302.42700000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>52585.849915</v>
+        <v>52585.849914999999</v>
       </c>
       <c r="G8" s="1">
-        <v>14.607181</v>
+        <v>14.607181000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1264.980000</v>
+        <v>1264.98</v>
       </c>
       <c r="I8" s="1">
-        <v>-261.493000</v>
+        <v>-261.49299999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>52596.589293</v>
+        <v>52596.589292999997</v>
       </c>
       <c r="L8" s="1">
-        <v>14.610164</v>
+        <v>14.610163999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1300.950000</v>
+        <v>1300.95</v>
       </c>
       <c r="N8" s="1">
-        <v>-201.109000</v>
+        <v>-201.10900000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>52607.163046</v>
+        <v>52607.163046000001</v>
       </c>
       <c r="Q8" s="1">
         <v>14.613101</v>
       </c>
       <c r="R8" s="1">
-        <v>1312.820000</v>
+        <v>1312.82</v>
       </c>
       <c r="S8" s="1">
-        <v>-183.354000</v>
+        <v>-183.35400000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>52617.687617</v>
+        <v>52617.687617000003</v>
       </c>
       <c r="V8" s="1">
-        <v>14.616024</v>
+        <v>14.616023999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1326.200000</v>
+        <v>1326.2</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.134000</v>
+        <v>-170.13399999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>52628.067425</v>
+        <v>52628.067425000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>14.618908</v>
+        <v>14.618907999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1343.400000</v>
+        <v>1343.4</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.073000</v>
+        <v>-168.07300000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>52638.959571</v>
+        <v>52638.959570999999</v>
       </c>
       <c r="AF8" s="1">
         <v>14.621933</v>
       </c>
       <c r="AG8" s="1">
-        <v>1356.330000</v>
+        <v>1356.33</v>
       </c>
       <c r="AH8" s="1">
-        <v>-177.883000</v>
+        <v>-177.88300000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>52649.408263</v>
+        <v>52649.408262999998</v>
       </c>
       <c r="AK8" s="1">
         <v>14.624836</v>
       </c>
       <c r="AL8" s="1">
-        <v>1377.040000</v>
+        <v>1377.04</v>
       </c>
       <c r="AM8" s="1">
-        <v>-207.803000</v>
+        <v>-207.803</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>52659.739929</v>
+        <v>52659.739929000003</v>
       </c>
       <c r="AP8" s="1">
         <v>14.627706</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1398.770000</v>
+        <v>1398.77</v>
       </c>
       <c r="AR8" s="1">
-        <v>-251.476000</v>
+        <v>-251.476</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>52670.418299</v>
+        <v>52670.418298999997</v>
       </c>
       <c r="AU8" s="1">
-        <v>14.630672</v>
+        <v>14.630672000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1423.450000</v>
+        <v>1423.45</v>
       </c>
       <c r="AW8" s="1">
-        <v>-311.123000</v>
+        <v>-311.12299999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>52681.087113</v>
+        <v>52681.087113000001</v>
       </c>
       <c r="AZ8" s="1">
         <v>14.633635</v>
       </c>
       <c r="BA8" s="1">
-        <v>1442.900000</v>
+        <v>1442.9</v>
       </c>
       <c r="BB8" s="1">
-        <v>-362.904000</v>
+        <v>-362.904</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>52692.125213</v>
+        <v>52692.125212999999</v>
       </c>
       <c r="BE8" s="1">
         <v>14.636701</v>
       </c>
       <c r="BF8" s="1">
-        <v>1528.670000</v>
+        <v>1528.67</v>
       </c>
       <c r="BG8" s="1">
-        <v>-609.207000</v>
+        <v>-609.20699999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>52702.499039</v>
+        <v>52702.499039000002</v>
       </c>
       <c r="BJ8" s="1">
         <v>14.639583</v>
       </c>
       <c r="BK8" s="1">
-        <v>1683.660000</v>
+        <v>1683.66</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1049.950000</v>
+        <v>-1049.95</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>52713.403622</v>
+        <v>52713.403621999998</v>
       </c>
       <c r="BO8" s="1">
         <v>14.642612</v>
       </c>
       <c r="BP8" s="1">
-        <v>1978.750000</v>
+        <v>1978.75</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1811.410000</v>
+        <v>-1811.41</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>52724.195042</v>
+        <v>52724.195041999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>14.645610</v>
+        <v>14.64561</v>
       </c>
       <c r="BU8" s="1">
-        <v>2367.680000</v>
+        <v>2367.6799999999998</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2690.550000</v>
+        <v>-2690.55</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>52734.988485</v>
+        <v>52734.988485000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>14.648608</v>
+        <v>14.648607999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2850.050000</v>
+        <v>2850.05</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3642.440000</v>
+        <v>-3642.44</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>52746.246182</v>
+        <v>52746.246182000003</v>
       </c>
       <c r="CD8" s="1">
         <v>14.651735</v>
       </c>
       <c r="CE8" s="1">
-        <v>4253.320000</v>
+        <v>4253.32</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5930.150000</v>
+        <v>-5930.15</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>52575.754839</v>
+        <v>52575.754839000001</v>
       </c>
       <c r="B9" s="1">
         <v>14.604376</v>
       </c>
       <c r="C9" s="1">
-        <v>1240.790000</v>
+        <v>1240.79</v>
       </c>
       <c r="D9" s="1">
-        <v>-302.482000</v>
+        <v>-302.48200000000003</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>52586.176776</v>
       </c>
       <c r="G9" s="1">
-        <v>14.607271</v>
+        <v>14.607271000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1265.020000</v>
+        <v>1265.02</v>
       </c>
       <c r="I9" s="1">
-        <v>-261.588000</v>
+        <v>-261.58800000000002</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>52597.014362</v>
+        <v>52597.014362000002</v>
       </c>
       <c r="L9" s="1">
         <v>14.610282</v>
       </c>
       <c r="M9" s="1">
-        <v>1300.720000</v>
+        <v>1300.72</v>
       </c>
       <c r="N9" s="1">
-        <v>-201.107000</v>
+        <v>-201.107</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>52607.451676</v>
+        <v>52607.451675999997</v>
       </c>
       <c r="Q9" s="1">
-        <v>14.613181</v>
+        <v>14.613181000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1312.740000</v>
+        <v>1312.74</v>
       </c>
       <c r="S9" s="1">
-        <v>-183.384000</v>
+        <v>-183.38399999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>52617.959423</v>
       </c>
       <c r="V9" s="1">
-        <v>14.616100</v>
+        <v>14.616099999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1326.100000</v>
+        <v>1326.1</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.035000</v>
+        <v>-170.035</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>52628.414097</v>
+        <v>52628.414097000001</v>
       </c>
       <c r="AA9" s="1">
         <v>14.619004</v>
       </c>
       <c r="AB9" s="1">
-        <v>1343.230000</v>
+        <v>1343.23</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.054000</v>
+        <v>-168.054</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>52639.304756</v>
+        <v>52639.304755999998</v>
       </c>
       <c r="AF9" s="1">
-        <v>14.622029</v>
+        <v>14.622028999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1356.170000</v>
+        <v>1356.17</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.069000</v>
+        <v>-178.06899999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>52649.758469</v>
@@ -2385,602 +2801,602 @@
         <v>14.624933</v>
       </c>
       <c r="AL9" s="1">
-        <v>1377.020000</v>
+        <v>1377.02</v>
       </c>
       <c r="AM9" s="1">
-        <v>-207.804000</v>
+        <v>-207.804</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>52660.459655</v>
+        <v>52660.459654999999</v>
       </c>
       <c r="AP9" s="1">
         <v>14.627905</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1398.790000</v>
+        <v>1398.79</v>
       </c>
       <c r="AR9" s="1">
-        <v>-251.448000</v>
+        <v>-251.44800000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>52671.145433</v>
+        <v>52671.145432999998</v>
       </c>
       <c r="AU9" s="1">
         <v>14.630874</v>
       </c>
       <c r="AV9" s="1">
-        <v>1423.450000</v>
+        <v>1423.45</v>
       </c>
       <c r="AW9" s="1">
-        <v>-311.144000</v>
+        <v>-311.14400000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>52681.460272</v>
+        <v>52681.460271999997</v>
       </c>
       <c r="AZ9" s="1">
         <v>14.633739</v>
       </c>
       <c r="BA9" s="1">
-        <v>1442.890000</v>
+        <v>1442.89</v>
       </c>
       <c r="BB9" s="1">
-        <v>-362.901000</v>
+        <v>-362.90100000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>52692.487292</v>
+        <v>52692.487291999998</v>
       </c>
       <c r="BE9" s="1">
-        <v>14.636802</v>
+        <v>14.636801999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1528.690000</v>
+        <v>1528.69</v>
       </c>
       <c r="BG9" s="1">
-        <v>-609.278000</v>
+        <v>-609.27800000000002</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>52702.875535</v>
+        <v>52702.875534999999</v>
       </c>
       <c r="BJ9" s="1">
         <v>14.639688</v>
       </c>
       <c r="BK9" s="1">
-        <v>1683.800000</v>
+        <v>1683.8</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1049.790000</v>
+        <v>-1049.79</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>52714.108401</v>
+        <v>52714.108400999998</v>
       </c>
       <c r="BO9" s="1">
         <v>14.642808</v>
       </c>
       <c r="BP9" s="1">
-        <v>1978.900000</v>
+        <v>1978.9</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1811.410000</v>
+        <v>-1811.41</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>52724.306642</v>
+        <v>52724.306642000003</v>
       </c>
       <c r="BT9" s="1">
-        <v>14.645641</v>
+        <v>14.645640999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2368.320000</v>
+        <v>2368.3200000000002</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2690.860000</v>
+        <v>-2690.86</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>52735.098600</v>
+        <v>52735.098599999998</v>
       </c>
       <c r="BY9" s="1">
-        <v>14.648639</v>
+        <v>14.648638999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2849.590000</v>
+        <v>2849.59</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3642.430000</v>
+        <v>-3642.43</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>52746.779878</v>
+        <v>52746.779878000001</v>
       </c>
       <c r="CD9" s="1">
         <v>14.651883</v>
       </c>
       <c r="CE9" s="1">
-        <v>4269.450000</v>
+        <v>4269.45</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5944.580000</v>
+        <v>-5944.58</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>52576.173003</v>
+        <v>52576.173003000004</v>
       </c>
       <c r="B10" s="1">
         <v>14.604493</v>
       </c>
       <c r="C10" s="1">
-        <v>1240.610000</v>
+        <v>1240.6099999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-302.219000</v>
+        <v>-302.21899999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>52586.867240</v>
+        <v>52586.86724</v>
       </c>
       <c r="G10" s="1">
-        <v>14.607463</v>
+        <v>14.607462999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1265.550000</v>
+        <v>1265.55</v>
       </c>
       <c r="I10" s="1">
-        <v>-262.160000</v>
+        <v>-262.16000000000003</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>52597.281243</v>
+        <v>52597.281242999998</v>
       </c>
       <c r="L10" s="1">
-        <v>14.610356</v>
+        <v>14.610355999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1301.010000</v>
+        <v>1301.01</v>
       </c>
       <c r="N10" s="1">
-        <v>-201.072000</v>
+        <v>-201.072</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>52607.801356</v>
+        <v>52607.801356000004</v>
       </c>
       <c r="Q10" s="1">
-        <v>14.613278</v>
+        <v>14.613277999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1312.770000</v>
+        <v>1312.77</v>
       </c>
       <c r="S10" s="1">
-        <v>-183.300000</v>
+        <v>-183.3</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>52618.303152</v>
       </c>
       <c r="V10" s="1">
-        <v>14.616195</v>
+        <v>14.616194999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1326.020000</v>
+        <v>1326.02</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.431000</v>
+        <v>-170.43100000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>52628.766754</v>
+        <v>52628.766753999997</v>
       </c>
       <c r="AA10" s="1">
         <v>14.619102</v>
       </c>
       <c r="AB10" s="1">
-        <v>1343.390000</v>
+        <v>1343.39</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.153000</v>
+        <v>-168.15299999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>52639.992211</v>
+        <v>52639.992210999997</v>
       </c>
       <c r="AF10" s="1">
-        <v>14.622220</v>
+        <v>14.62222</v>
       </c>
       <c r="AG10" s="1">
-        <v>1356.260000</v>
+        <v>1356.26</v>
       </c>
       <c r="AH10" s="1">
-        <v>-177.818000</v>
+        <v>-177.81800000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>52650.455348</v>
+        <v>52650.455348000003</v>
       </c>
       <c r="AK10" s="1">
         <v>14.625126</v>
       </c>
       <c r="AL10" s="1">
-        <v>1377.050000</v>
+        <v>1377.05</v>
       </c>
       <c r="AM10" s="1">
-        <v>-207.763000</v>
+        <v>-207.76300000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>52660.819254</v>
+        <v>52660.819254000002</v>
       </c>
       <c r="AP10" s="1">
         <v>14.628005</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1398.760000</v>
+        <v>1398.76</v>
       </c>
       <c r="AR10" s="1">
-        <v>-251.461000</v>
+        <v>-251.46100000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>52671.507514</v>
+        <v>52671.507513999997</v>
       </c>
       <c r="AU10" s="1">
         <v>14.630974</v>
       </c>
       <c r="AV10" s="1">
-        <v>1423.440000</v>
+        <v>1423.44</v>
       </c>
       <c r="AW10" s="1">
-        <v>-311.152000</v>
+        <v>-311.15199999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>52681.840668</v>
+        <v>52681.840667999997</v>
       </c>
       <c r="AZ10" s="1">
-        <v>14.633845</v>
+        <v>14.633845000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1442.880000</v>
+        <v>1442.88</v>
       </c>
       <c r="BB10" s="1">
-        <v>-362.938000</v>
+        <v>-362.93799999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>52693.174251</v>
+        <v>52693.174250999997</v>
       </c>
       <c r="BE10" s="1">
         <v>14.636993</v>
       </c>
       <c r="BF10" s="1">
-        <v>1528.690000</v>
+        <v>1528.69</v>
       </c>
       <c r="BG10" s="1">
-        <v>-609.268000</v>
+        <v>-609.26800000000003</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>52703.555022</v>
       </c>
       <c r="BJ10" s="1">
-        <v>14.639876</v>
+        <v>14.639875999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1683.840000</v>
+        <v>1683.84</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1049.950000</v>
+        <v>-1049.95</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>52714.240367</v>
+        <v>52714.240366999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>14.642845</v>
+        <v>14.642844999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1978.990000</v>
+        <v>1978.99</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1811.450000</v>
+        <v>-1811.45</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>52724.745603</v>
+        <v>52724.745603000003</v>
       </c>
       <c r="BT10" s="1">
-        <v>14.645763</v>
+        <v>14.645763000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>2368.630000</v>
+        <v>2368.63</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2690.160000</v>
+        <v>-2690.16</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>52735.529156</v>
+        <v>52735.529155999997</v>
       </c>
       <c r="BY10" s="1">
-        <v>14.648758</v>
+        <v>14.648758000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2849.860000</v>
+        <v>2849.86</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3643.150000</v>
+        <v>-3643.15</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>52747.318564</v>
+        <v>52747.318564000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>14.652033</v>
+        <v>14.652032999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>4261.140000</v>
+        <v>4261.1400000000003</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5921.940000</v>
+        <v>-5921.94</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>52576.451718</v>
+        <v>52576.451717999997</v>
       </c>
       <c r="B11" s="1">
-        <v>14.604570</v>
+        <v>14.604570000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1240.320000</v>
+        <v>1240.32</v>
       </c>
       <c r="D11" s="1">
-        <v>-302.398000</v>
+        <v>-302.39800000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>52587.209980</v>
+        <v>52587.20998</v>
       </c>
       <c r="G11" s="1">
-        <v>14.607558</v>
+        <v>14.607557999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1265.620000</v>
+        <v>1265.6199999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-261.601000</v>
+        <v>-261.601</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>52597.629436</v>
+        <v>52597.629436000003</v>
       </c>
       <c r="L11" s="1">
         <v>14.610453</v>
       </c>
       <c r="M11" s="1">
-        <v>1300.920000</v>
+        <v>1300.92</v>
       </c>
       <c r="N11" s="1">
-        <v>-200.932000</v>
+        <v>-200.93199999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>52608.147595</v>
+        <v>52608.147595000002</v>
       </c>
       <c r="Q11" s="1">
         <v>14.613374</v>
       </c>
       <c r="R11" s="1">
-        <v>1312.910000</v>
+        <v>1312.91</v>
       </c>
       <c r="S11" s="1">
-        <v>-183.334000</v>
+        <v>-183.334</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>52618.644398</v>
+        <v>52618.644397999997</v>
       </c>
       <c r="V11" s="1">
-        <v>14.616290</v>
+        <v>14.616289999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1325.990000</v>
+        <v>1325.99</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.230000</v>
+        <v>-170.23</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>52629.461680</v>
+        <v>52629.46168</v>
       </c>
       <c r="AA11" s="1">
-        <v>14.619295</v>
+        <v>14.619294999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1343.330000</v>
+        <v>1343.33</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.367000</v>
+        <v>-168.36699999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>52640.340913</v>
       </c>
       <c r="AF11" s="1">
-        <v>14.622317</v>
+        <v>14.622317000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1356.300000</v>
+        <v>1356.3</v>
       </c>
       <c r="AH11" s="1">
-        <v>-177.937000</v>
+        <v>-177.93700000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>52650.804004</v>
+        <v>52650.804003999998</v>
       </c>
       <c r="AK11" s="1">
         <v>14.625223</v>
       </c>
       <c r="AL11" s="1">
-        <v>1377.020000</v>
+        <v>1377.02</v>
       </c>
       <c r="AM11" s="1">
-        <v>-207.784000</v>
+        <v>-207.78399999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>52661.179847</v>
+        <v>52661.179846999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>14.628106</v>
+        <v>14.628106000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1398.780000</v>
+        <v>1398.78</v>
       </c>
       <c r="AR11" s="1">
-        <v>-251.466000</v>
+        <v>-251.46600000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>52671.895880</v>
+        <v>52671.895879999996</v>
       </c>
       <c r="AU11" s="1">
-        <v>14.631082</v>
+        <v>14.631081999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1423.430000</v>
+        <v>1423.43</v>
       </c>
       <c r="AW11" s="1">
-        <v>-311.133000</v>
+        <v>-311.13299999999998</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>52682.505306</v>
+        <v>52682.505305999999</v>
       </c>
       <c r="AZ11" s="1">
         <v>14.634029</v>
       </c>
       <c r="BA11" s="1">
-        <v>1442.870000</v>
+        <v>1442.87</v>
       </c>
       <c r="BB11" s="1">
-        <v>-362.943000</v>
+        <v>-362.94299999999998</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>52693.598331</v>
+        <v>52693.598331000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>14.637111</v>
+        <v>14.637111000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1528.720000</v>
+        <v>1528.72</v>
       </c>
       <c r="BG11" s="1">
-        <v>-609.282000</v>
+        <v>-609.28200000000004</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>52703.999967</v>
+        <v>52703.999967000003</v>
       </c>
       <c r="BJ11" s="1">
-        <v>14.640000</v>
+        <v>14.64</v>
       </c>
       <c r="BK11" s="1">
-        <v>1683.720000</v>
+        <v>1683.72</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1049.870000</v>
+        <v>-1049.8699999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>52714.648084</v>
@@ -2989,649 +3405,649 @@
         <v>14.642958</v>
       </c>
       <c r="BP11" s="1">
-        <v>1978.990000</v>
+        <v>1978.99</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1811.470000</v>
+        <v>-1811.47</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>52725.173154</v>
+        <v>52725.173153999996</v>
       </c>
       <c r="BT11" s="1">
-        <v>14.645881</v>
+        <v>14.645880999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>2368.660000</v>
+        <v>2368.66</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2689.940000</v>
+        <v>-2689.94</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>52735.949761</v>
+        <v>52735.949761000003</v>
       </c>
       <c r="BY11" s="1">
         <v>14.648875</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2850.250000</v>
+        <v>2850.25</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3642.760000</v>
+        <v>-3642.76</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>52747.860659</v>
+        <v>52747.860658999998</v>
       </c>
       <c r="CD11" s="1">
         <v>14.652184</v>
       </c>
       <c r="CE11" s="1">
-        <v>4258.630000</v>
+        <v>4258.63</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5940.100000</v>
+        <v>-5940.1</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>52576.796934</v>
+        <v>52576.796933999998</v>
       </c>
       <c r="B12" s="1">
         <v>14.604666</v>
       </c>
       <c r="C12" s="1">
-        <v>1240.570000</v>
+        <v>1240.57</v>
       </c>
       <c r="D12" s="1">
-        <v>-302.491000</v>
+        <v>-302.49099999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>52587.553704</v>
+        <v>52587.553703999998</v>
       </c>
       <c r="G12" s="1">
         <v>14.607654</v>
       </c>
       <c r="H12" s="1">
-        <v>1265.110000</v>
+        <v>1265.1099999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-260.949000</v>
+        <v>-260.94900000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>52597.973129</v>
+        <v>52597.973128999998</v>
       </c>
       <c r="L12" s="1">
         <v>14.610548</v>
       </c>
       <c r="M12" s="1">
-        <v>1301.020000</v>
+        <v>1301.02</v>
       </c>
       <c r="N12" s="1">
-        <v>-201.003000</v>
+        <v>-201.00299999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>52608.847915</v>
+        <v>52608.847914999998</v>
       </c>
       <c r="Q12" s="1">
         <v>14.613569</v>
       </c>
       <c r="R12" s="1">
-        <v>1312.930000</v>
+        <v>1312.93</v>
       </c>
       <c r="S12" s="1">
-        <v>-183.337000</v>
+        <v>-183.33699999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>52619.330863</v>
+        <v>52619.330863000003</v>
       </c>
       <c r="V12" s="1">
         <v>14.616481</v>
       </c>
       <c r="W12" s="1">
-        <v>1326.080000</v>
+        <v>1326.08</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.151000</v>
+        <v>-170.15100000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>52629.811359</v>
+        <v>52629.811358999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>14.619392</v>
+        <v>14.619391999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1343.370000</v>
+        <v>1343.37</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.115000</v>
+        <v>-168.11500000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>52640.680162</v>
+        <v>52640.680161999997</v>
       </c>
       <c r="AF12" s="1">
         <v>14.622411</v>
       </c>
       <c r="AG12" s="1">
-        <v>1356.420000</v>
+        <v>1356.42</v>
       </c>
       <c r="AH12" s="1">
-        <v>-177.984000</v>
+        <v>-177.98400000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>52651.153219</v>
       </c>
       <c r="AK12" s="1">
-        <v>14.625320</v>
+        <v>14.62532</v>
       </c>
       <c r="AL12" s="1">
-        <v>1377.030000</v>
+        <v>1377.03</v>
       </c>
       <c r="AM12" s="1">
-        <v>-207.810000</v>
+        <v>-207.81</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>52661.850901</v>
+        <v>52661.850900999998</v>
       </c>
       <c r="AP12" s="1">
         <v>14.628292</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1398.720000</v>
+        <v>1398.72</v>
       </c>
       <c r="AR12" s="1">
-        <v>-251.458000</v>
+        <v>-251.458</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>52672.378005</v>
+        <v>52672.378004999999</v>
       </c>
       <c r="AU12" s="1">
         <v>14.631216</v>
       </c>
       <c r="AV12" s="1">
-        <v>1423.440000</v>
+        <v>1423.44</v>
       </c>
       <c r="AW12" s="1">
-        <v>-311.110000</v>
+        <v>-311.11</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>52682.924958</v>
+        <v>52682.924958000003</v>
       </c>
       <c r="AZ12" s="1">
-        <v>14.634146</v>
+        <v>14.634145999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1442.880000</v>
+        <v>1442.88</v>
       </c>
       <c r="BB12" s="1">
-        <v>-362.901000</v>
+        <v>-362.90100000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>52693.961404</v>
+        <v>52693.961404000001</v>
       </c>
       <c r="BE12" s="1">
         <v>14.637212</v>
       </c>
       <c r="BF12" s="1">
-        <v>1528.670000</v>
+        <v>1528.67</v>
       </c>
       <c r="BG12" s="1">
-        <v>-609.270000</v>
+        <v>-609.27</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>52704.374444</v>
+        <v>52704.374444000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>14.640104</v>
+        <v>14.640103999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1683.830000</v>
+        <v>1683.83</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1049.750000</v>
+        <v>-1049.75</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>52715.042862</v>
+        <v>52715.042862000002</v>
       </c>
       <c r="BO12" s="1">
         <v>14.643067</v>
       </c>
       <c r="BP12" s="1">
-        <v>1978.710000</v>
+        <v>1978.71</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1811.290000</v>
+        <v>-1811.29</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>52725.586816</v>
+        <v>52725.586816000003</v>
       </c>
       <c r="BT12" s="1">
         <v>14.645996</v>
       </c>
       <c r="BU12" s="1">
-        <v>2368.830000</v>
+        <v>2368.83</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2689.350000</v>
+        <v>-2689.35</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>52736.379266</v>
+        <v>52736.379266000004</v>
       </c>
       <c r="BY12" s="1">
         <v>14.648994</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2850.650000</v>
+        <v>2850.65</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3642.790000</v>
+        <v>-3642.79</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>52748.402786</v>
+        <v>52748.402785999999</v>
       </c>
       <c r="CD12" s="1">
         <v>14.652334</v>
       </c>
       <c r="CE12" s="1">
-        <v>4273.430000</v>
+        <v>4273.43</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5931.470000</v>
+        <v>-5931.47</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>52577.137226</v>
+        <v>52577.137225999999</v>
       </c>
       <c r="B13" s="1">
-        <v>14.604760</v>
+        <v>14.604760000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1240.720000</v>
+        <v>1240.72</v>
       </c>
       <c r="D13" s="1">
-        <v>-302.212000</v>
+        <v>-302.21199999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>52588.244599</v>
+        <v>52588.244598999998</v>
       </c>
       <c r="G13" s="1">
         <v>14.607846</v>
       </c>
       <c r="H13" s="1">
-        <v>1265.870000</v>
+        <v>1265.8699999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-261.410000</v>
+        <v>-261.41000000000003</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>52598.663064</v>
       </c>
       <c r="L13" s="1">
-        <v>14.610740</v>
+        <v>14.61074</v>
       </c>
       <c r="M13" s="1">
-        <v>1301.020000</v>
+        <v>1301.02</v>
       </c>
       <c r="N13" s="1">
-        <v>-200.799000</v>
+        <v>-200.79900000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>52609.193626</v>
       </c>
       <c r="Q13" s="1">
-        <v>14.613665</v>
+        <v>14.613664999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1312.770000</v>
+        <v>1312.77</v>
       </c>
       <c r="S13" s="1">
-        <v>-183.327000</v>
+        <v>-183.327</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>52619.675830</v>
+        <v>52619.67583</v>
       </c>
       <c r="V13" s="1">
-        <v>14.616577</v>
+        <v>14.616576999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1325.900000</v>
+        <v>1325.9</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.018000</v>
+        <v>-170.018</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>52630.160016</v>
+        <v>52630.160016000002</v>
       </c>
       <c r="AA13" s="1">
         <v>14.619489</v>
       </c>
       <c r="AB13" s="1">
-        <v>1343.340000</v>
+        <v>1343.34</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.158000</v>
+        <v>-168.15799999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>52641.345295</v>
+        <v>52641.345294999999</v>
       </c>
       <c r="AF13" s="1">
         <v>14.622596</v>
       </c>
       <c r="AG13" s="1">
-        <v>1356.230000</v>
+        <v>1356.23</v>
       </c>
       <c r="AH13" s="1">
-        <v>-177.817000</v>
+        <v>-177.81700000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>52651.805473</v>
       </c>
       <c r="AK13" s="1">
-        <v>14.625502</v>
+        <v>14.625501999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1377.060000</v>
+        <v>1377.06</v>
       </c>
       <c r="AM13" s="1">
-        <v>-207.758000</v>
+        <v>-207.75800000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>52662.295812</v>
+        <v>52662.295811999997</v>
       </c>
       <c r="AP13" s="1">
         <v>14.628416</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1398.750000</v>
+        <v>1398.75</v>
       </c>
       <c r="AR13" s="1">
-        <v>-251.478000</v>
+        <v>-251.47800000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>52672.606152</v>
       </c>
       <c r="AU13" s="1">
-        <v>14.631279</v>
+        <v>14.631278999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1423.460000</v>
+        <v>1423.46</v>
       </c>
       <c r="AW13" s="1">
-        <v>-311.103000</v>
+        <v>-311.10300000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>52683.300430</v>
+        <v>52683.300430000003</v>
       </c>
       <c r="AZ13" s="1">
-        <v>14.634250</v>
+        <v>14.63425</v>
       </c>
       <c r="BA13" s="1">
-        <v>1442.920000</v>
+        <v>1442.92</v>
       </c>
       <c r="BB13" s="1">
-        <v>-362.909000</v>
+        <v>-362.90899999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>52694.320508</v>
+        <v>52694.320507999997</v>
       </c>
       <c r="BE13" s="1">
         <v>14.637311</v>
       </c>
       <c r="BF13" s="1">
-        <v>1528.660000</v>
+        <v>1528.66</v>
       </c>
       <c r="BG13" s="1">
-        <v>-609.243000</v>
+        <v>-609.24300000000005</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>52704.751550</v>
+        <v>52704.751550000001</v>
       </c>
       <c r="BJ13" s="1">
         <v>14.640209</v>
       </c>
       <c r="BK13" s="1">
-        <v>1683.740000</v>
+        <v>1683.74</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1049.990000</v>
+        <v>-1049.99</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>52715.467438</v>
       </c>
       <c r="BO13" s="1">
-        <v>14.643185</v>
+        <v>14.643185000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1978.920000</v>
+        <v>1978.92</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1811.360000</v>
+        <v>-1811.36</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>52726.016849</v>
       </c>
       <c r="BT13" s="1">
-        <v>14.646116</v>
+        <v>14.646115999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>2369.470000</v>
+        <v>2369.4699999999998</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2688.920000</v>
+        <v>-2688.92</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>52736.803846</v>
+        <v>52736.803846000003</v>
       </c>
       <c r="BY13" s="1">
-        <v>14.649112</v>
+        <v>14.649112000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2849.140000</v>
+        <v>2849.14</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3641.980000</v>
+        <v>-3641.98</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>52748.939489</v>
+        <v>52748.939488999997</v>
       </c>
       <c r="CD13" s="1">
         <v>14.652483</v>
       </c>
       <c r="CE13" s="1">
-        <v>4253.480000</v>
+        <v>4253.4799999999996</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5928.990000</v>
+        <v>-5928.99</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>52577.819220</v>
+        <v>52577.819219999998</v>
       </c>
       <c r="B14" s="1">
-        <v>14.604950</v>
+        <v>14.604950000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1240.980000</v>
+        <v>1240.98</v>
       </c>
       <c r="D14" s="1">
-        <v>-302.413000</v>
+        <v>-302.41300000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>52588.586373</v>
+        <v>52588.586372999998</v>
       </c>
       <c r="G14" s="1">
         <v>14.607941</v>
       </c>
       <c r="H14" s="1">
-        <v>1265.350000</v>
+        <v>1265.3499999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-261.045000</v>
+        <v>-261.04500000000002</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>52599.006824</v>
+        <v>52599.006823999996</v>
       </c>
       <c r="L14" s="1">
         <v>14.610835</v>
       </c>
       <c r="M14" s="1">
-        <v>1300.900000</v>
+        <v>1300.9000000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-200.671000</v>
+        <v>-200.67099999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>52609.544299</v>
+        <v>52609.544299000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>14.613762</v>
+        <v>14.613761999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1312.760000</v>
+        <v>1312.76</v>
       </c>
       <c r="S14" s="1">
-        <v>-183.391000</v>
+        <v>-183.39099999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>52620.019349</v>
+        <v>52620.019349000002</v>
       </c>
       <c r="V14" s="1">
-        <v>14.616672</v>
+        <v>14.616671999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1326.160000</v>
+        <v>1326.16</v>
       </c>
       <c r="X14" s="1">
-        <v>-169.803000</v>
+        <v>-169.803</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>52630.827631</v>
@@ -3640,181 +4056,181 @@
         <v>14.619674</v>
       </c>
       <c r="AB14" s="1">
-        <v>1343.510000</v>
+        <v>1343.51</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.114000</v>
+        <v>-168.114</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>52641.711376</v>
+        <v>52641.711375999999</v>
       </c>
       <c r="AF14" s="1">
         <v>14.622698</v>
       </c>
       <c r="AG14" s="1">
-        <v>1356.550000</v>
+        <v>1356.55</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.041000</v>
+        <v>-178.041</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>52652.196769</v>
+        <v>52652.196769000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>14.625610</v>
+        <v>14.62561</v>
       </c>
       <c r="AL14" s="1">
-        <v>1377.010000</v>
+        <v>1377.01</v>
       </c>
       <c r="AM14" s="1">
-        <v>-207.788000</v>
+        <v>-207.78800000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>52662.652960</v>
+        <v>52662.652959999999</v>
       </c>
       <c r="AP14" s="1">
         <v>14.628515</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1398.760000</v>
+        <v>1398.76</v>
       </c>
       <c r="AR14" s="1">
-        <v>-251.431000</v>
+        <v>-251.43100000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>52672.967734</v>
+        <v>52672.967733999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>14.631380</v>
+        <v>14.63138</v>
       </c>
       <c r="AV14" s="1">
-        <v>1423.470000</v>
+        <v>1423.47</v>
       </c>
       <c r="AW14" s="1">
-        <v>-311.122000</v>
+        <v>-311.12200000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>52683.678841</v>
+        <v>52683.678841000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>14.634355</v>
+        <v>14.634354999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1442.890000</v>
+        <v>1442.89</v>
       </c>
       <c r="BB14" s="1">
-        <v>-362.900000</v>
+        <v>-362.9</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>52694.738665</v>
+        <v>52694.738664999997</v>
       </c>
       <c r="BE14" s="1">
-        <v>14.637427</v>
+        <v>14.637427000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1528.670000</v>
+        <v>1528.67</v>
       </c>
       <c r="BG14" s="1">
-        <v>-609.247000</v>
+        <v>-609.24699999999996</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>52705.179420</v>
+        <v>52705.17942</v>
       </c>
       <c r="BJ14" s="1">
         <v>14.640328</v>
       </c>
       <c r="BK14" s="1">
-        <v>1683.720000</v>
+        <v>1683.72</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1049.720000</v>
+        <v>-1049.72</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>52715.874174</v>
+        <v>52715.874173999997</v>
       </c>
       <c r="BO14" s="1">
         <v>14.643298</v>
       </c>
       <c r="BP14" s="1">
-        <v>1978.840000</v>
+        <v>1978.84</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1811.180000</v>
+        <v>-1811.18</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>52726.445889</v>
+        <v>52726.445889000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>14.646235</v>
+        <v>14.646235000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2369.190000</v>
+        <v>2369.19</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2688.540000</v>
+        <v>-2688.54</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>52737.239862</v>
+        <v>52737.239862000002</v>
       </c>
       <c r="BY14" s="1">
-        <v>14.649233</v>
+        <v>14.649233000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2849.400000</v>
+        <v>2849.4</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3643.450000</v>
+        <v>-3643.45</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>52749.475634</v>
+        <v>52749.475634000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>14.652632</v>
+        <v>14.652632000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>4270.690000</v>
+        <v>4270.6899999999996</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5942.200000</v>
+        <v>-5942.2</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>52578.162419</v>
       </c>
@@ -3822,58 +4238,58 @@
         <v>14.605045</v>
       </c>
       <c r="C15" s="1">
-        <v>1240.910000</v>
+        <v>1240.9100000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-302.526000</v>
+        <v>-302.52600000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>52588.933078</v>
+        <v>52588.933078000002</v>
       </c>
       <c r="G15" s="1">
-        <v>14.608037</v>
+        <v>14.608036999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1265.460000</v>
+        <v>1265.46</v>
       </c>
       <c r="I15" s="1">
-        <v>-262.366000</v>
+        <v>-262.36599999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>52599.354984</v>
+        <v>52599.354983999998</v>
       </c>
       <c r="L15" s="1">
         <v>14.610932</v>
       </c>
       <c r="M15" s="1">
-        <v>1300.970000</v>
+        <v>1300.97</v>
       </c>
       <c r="N15" s="1">
-        <v>-201.066000</v>
+        <v>-201.066</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>52610.210167</v>
+        <v>52610.210166999997</v>
       </c>
       <c r="Q15" s="1">
         <v>14.613947</v>
       </c>
       <c r="R15" s="1">
-        <v>1312.810000</v>
+        <v>1312.81</v>
       </c>
       <c r="S15" s="1">
-        <v>-183.289000</v>
+        <v>-183.28899999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>52620.717675</v>
@@ -3882,133 +4298,133 @@
         <v>14.616866</v>
       </c>
       <c r="W15" s="1">
-        <v>1326.060000</v>
+        <v>1326.06</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.214000</v>
+        <v>-170.214</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>52631.205581</v>
+        <v>52631.205581000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>14.619779</v>
+        <v>14.619778999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1343.530000</v>
+        <v>1343.53</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.121000</v>
+        <v>-168.12100000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>52642.054606</v>
+        <v>52642.054605999998</v>
       </c>
       <c r="AF15" s="1">
         <v>14.622793</v>
       </c>
       <c r="AG15" s="1">
-        <v>1356.310000</v>
+        <v>1356.31</v>
       </c>
       <c r="AH15" s="1">
-        <v>-177.932000</v>
+        <v>-177.93199999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>52652.546484</v>
+        <v>52652.546483999999</v>
       </c>
       <c r="AK15" s="1">
         <v>14.625707</v>
       </c>
       <c r="AL15" s="1">
-        <v>1377.030000</v>
+        <v>1377.03</v>
       </c>
       <c r="AM15" s="1">
-        <v>-207.790000</v>
+        <v>-207.79</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>52663.015049</v>
+        <v>52663.015049000001</v>
       </c>
       <c r="AP15" s="1">
         <v>14.628615</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1398.760000</v>
+        <v>1398.76</v>
       </c>
       <c r="AR15" s="1">
-        <v>-251.455000</v>
+        <v>-251.45500000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>52673.387846</v>
+        <v>52673.387845999998</v>
       </c>
       <c r="AU15" s="1">
         <v>14.631497</v>
       </c>
       <c r="AV15" s="1">
-        <v>1423.450000</v>
+        <v>1423.45</v>
       </c>
       <c r="AW15" s="1">
-        <v>-311.109000</v>
+        <v>-311.10899999999998</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>52684.097498</v>
+        <v>52684.097498000003</v>
       </c>
       <c r="AZ15" s="1">
-        <v>14.634472</v>
+        <v>14.634472000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1442.930000</v>
+        <v>1442.93</v>
       </c>
       <c r="BB15" s="1">
-        <v>-362.892000</v>
+        <v>-362.892</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>52695.044697</v>
+        <v>52695.044696999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>14.637512</v>
+        <v>14.637511999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1528.680000</v>
+        <v>1528.68</v>
       </c>
       <c r="BG15" s="1">
-        <v>-609.231000</v>
+        <v>-609.23099999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>52705.523675</v>
+        <v>52705.523674999997</v>
       </c>
       <c r="BJ15" s="1">
         <v>14.640423</v>
       </c>
       <c r="BK15" s="1">
-        <v>1683.800000</v>
+        <v>1683.8</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1049.900000</v>
+        <v>-1049.9000000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>52716.283357</v>
@@ -4017,225 +4433,225 @@
         <v>14.643412</v>
       </c>
       <c r="BP15" s="1">
-        <v>1978.700000</v>
+        <v>1978.7</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1811.280000</v>
+        <v>-1811.28</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>52726.858559</v>
       </c>
       <c r="BT15" s="1">
-        <v>14.646350</v>
+        <v>14.64635</v>
       </c>
       <c r="BU15" s="1">
-        <v>2369.170000</v>
+        <v>2369.17</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2687.980000</v>
+        <v>-2687.98</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>52737.696672</v>
+        <v>52737.696671999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>14.649360</v>
+        <v>14.64936</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2850.080000</v>
+        <v>2850.08</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3642.600000</v>
+        <v>-3642.6</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>52750.019777</v>
+        <v>52750.019777000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>14.652783</v>
+        <v>14.652782999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>4261.730000</v>
+        <v>4261.7299999999996</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5920.860000</v>
+        <v>-5920.86</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>52578.504163</v>
+        <v>52578.504162999998</v>
       </c>
       <c r="B16" s="1">
-        <v>14.605140</v>
+        <v>14.60514</v>
       </c>
       <c r="C16" s="1">
-        <v>1240.940000</v>
+        <v>1240.94</v>
       </c>
       <c r="D16" s="1">
-        <v>-302.451000</v>
+        <v>-302.45100000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>52589.583301</v>
+        <v>52589.583300999999</v>
       </c>
       <c r="G16" s="1">
-        <v>14.608218</v>
+        <v>14.608218000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1264.990000</v>
+        <v>1264.99</v>
       </c>
       <c r="I16" s="1">
-        <v>-261.349000</v>
+        <v>-261.34899999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>52600.023096</v>
+        <v>52600.023095999997</v>
       </c>
       <c r="L16" s="1">
-        <v>14.611118</v>
+        <v>14.611117999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1300.860000</v>
+        <v>1300.8599999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-200.956000</v>
+        <v>-200.95599999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>52610.587386</v>
+        <v>52610.587385999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>14.614052</v>
+        <v>14.614051999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1312.800000</v>
+        <v>1312.8</v>
       </c>
       <c r="S16" s="1">
-        <v>-183.267000</v>
+        <v>-183.267</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>52621.051484</v>
+        <v>52621.051484000003</v>
       </c>
       <c r="V16" s="1">
         <v>14.616959</v>
       </c>
       <c r="W16" s="1">
-        <v>1326.070000</v>
+        <v>1326.07</v>
       </c>
       <c r="X16" s="1">
-        <v>-169.926000</v>
+        <v>-169.92599999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>52631.553772</v>
+        <v>52631.553771999999</v>
       </c>
       <c r="AA16" s="1">
         <v>14.619876</v>
       </c>
       <c r="AB16" s="1">
-        <v>1343.430000</v>
+        <v>1343.43</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.136000</v>
+        <v>-168.136</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>52642.401774</v>
+        <v>52642.401773999998</v>
       </c>
       <c r="AF16" s="1">
-        <v>14.622889</v>
+        <v>14.622889000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1356.370000</v>
+        <v>1356.37</v>
       </c>
       <c r="AH16" s="1">
-        <v>-177.889000</v>
+        <v>-177.88900000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>52652.894677</v>
+        <v>52652.894676999997</v>
       </c>
       <c r="AK16" s="1">
         <v>14.625804</v>
       </c>
       <c r="AL16" s="1">
-        <v>1377.020000</v>
+        <v>1377.02</v>
       </c>
       <c r="AM16" s="1">
-        <v>-207.798000</v>
+        <v>-207.798</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>52663.430660</v>
+        <v>52663.430659999998</v>
       </c>
       <c r="AP16" s="1">
         <v>14.628731</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1398.760000</v>
+        <v>1398.76</v>
       </c>
       <c r="AR16" s="1">
-        <v>-251.433000</v>
+        <v>-251.43299999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>52673.699859</v>
       </c>
       <c r="AU16" s="1">
-        <v>14.631583</v>
+        <v>14.631582999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1423.420000</v>
+        <v>1423.42</v>
       </c>
       <c r="AW16" s="1">
-        <v>-311.145000</v>
+        <v>-311.14499999999998</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>52684.397047</v>
+        <v>52684.397046999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>14.634555</v>
+        <v>14.634555000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1442.880000</v>
+        <v>1442.88</v>
       </c>
       <c r="BB16" s="1">
-        <v>-362.883000</v>
+        <v>-362.88299999999998</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>52695.406249</v>
@@ -4244,240 +4660,240 @@
         <v>14.637613</v>
       </c>
       <c r="BF16" s="1">
-        <v>1528.680000</v>
+        <v>1528.68</v>
       </c>
       <c r="BG16" s="1">
-        <v>-609.222000</v>
+        <v>-609.22199999999998</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>52705.924448</v>
+        <v>52705.924447999998</v>
       </c>
       <c r="BJ16" s="1">
         <v>14.640535</v>
       </c>
       <c r="BK16" s="1">
-        <v>1683.640000</v>
+        <v>1683.64</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1049.850000</v>
+        <v>-1049.8499999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>52716.679197</v>
+        <v>52716.679196999998</v>
       </c>
       <c r="BO16" s="1">
-        <v>14.643522</v>
+        <v>14.643522000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1978.730000</v>
+        <v>1978.73</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1811.290000</v>
+        <v>-1811.29</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>52727.289087</v>
+        <v>52727.289086999997</v>
       </c>
       <c r="BT16" s="1">
         <v>14.646469</v>
       </c>
       <c r="BU16" s="1">
-        <v>2369.110000</v>
+        <v>2369.11</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2687.490000</v>
+        <v>-2687.49</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>52738.144528</v>
+        <v>52738.144527999997</v>
       </c>
       <c r="BY16" s="1">
         <v>14.649485</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2849.710000</v>
+        <v>2849.71</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3642.470000</v>
+        <v>-3642.47</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>52750.561904</v>
+        <v>52750.561904000002</v>
       </c>
       <c r="CD16" s="1">
         <v>14.652934</v>
       </c>
       <c r="CE16" s="1">
-        <v>4257.840000</v>
+        <v>4257.84</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5939.620000</v>
+        <v>-5939.62</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>52579.156898</v>
+        <v>52579.156898000001</v>
       </c>
       <c r="B17" s="1">
         <v>14.605321</v>
       </c>
       <c r="C17" s="1">
-        <v>1240.570000</v>
+        <v>1240.57</v>
       </c>
       <c r="D17" s="1">
-        <v>-302.563000</v>
+        <v>-302.56299999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>52589.967700</v>
+        <v>52589.967700000001</v>
       </c>
       <c r="G17" s="1">
         <v>14.608324</v>
       </c>
       <c r="H17" s="1">
-        <v>1265.960000</v>
+        <v>1265.96</v>
       </c>
       <c r="I17" s="1">
-        <v>-261.352000</v>
+        <v>-261.35199999999998</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>52600.393607</v>
+        <v>52600.393606999998</v>
       </c>
       <c r="L17" s="1">
-        <v>14.611220</v>
+        <v>14.611219999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1301.080000</v>
+        <v>1301.08</v>
       </c>
       <c r="N17" s="1">
-        <v>-200.939000</v>
+        <v>-200.93899999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>52610.939544</v>
+        <v>52610.939544000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>14.614150</v>
+        <v>14.61415</v>
       </c>
       <c r="R17" s="1">
-        <v>1312.810000</v>
+        <v>1312.81</v>
       </c>
       <c r="S17" s="1">
-        <v>-183.364000</v>
+        <v>-183.364</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>52621.392540</v>
+        <v>52621.392540000001</v>
       </c>
       <c r="V17" s="1">
         <v>14.617053</v>
       </c>
       <c r="W17" s="1">
-        <v>1325.950000</v>
+        <v>1325.95</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.154000</v>
+        <v>-170.154</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>52631.904476</v>
+        <v>52631.904476000003</v>
       </c>
       <c r="AA17" s="1">
         <v>14.619973</v>
       </c>
       <c r="AB17" s="1">
-        <v>1343.430000</v>
+        <v>1343.43</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.084000</v>
+        <v>-168.084</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>52642.828367</v>
+        <v>52642.828367000002</v>
       </c>
       <c r="AF17" s="1">
         <v>14.623008</v>
       </c>
       <c r="AG17" s="1">
-        <v>1356.330000</v>
+        <v>1356.33</v>
       </c>
       <c r="AH17" s="1">
-        <v>-177.919000</v>
+        <v>-177.91900000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>52653.311782</v>
+        <v>52653.311781999997</v>
       </c>
       <c r="AK17" s="1">
-        <v>14.625920</v>
+        <v>14.625920000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1377.020000</v>
+        <v>1377.02</v>
       </c>
       <c r="AM17" s="1">
-        <v>-207.775000</v>
+        <v>-207.77500000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>52663.736690</v>
+        <v>52663.736689999998</v>
       </c>
       <c r="AP17" s="1">
         <v>14.628816</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1398.770000</v>
+        <v>1398.77</v>
       </c>
       <c r="AR17" s="1">
-        <v>-251.444000</v>
+        <v>-251.44399999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>52674.062932</v>
+        <v>52674.062932000001</v>
       </c>
       <c r="AU17" s="1">
         <v>14.631684</v>
       </c>
       <c r="AV17" s="1">
-        <v>1423.460000</v>
+        <v>1423.46</v>
       </c>
       <c r="AW17" s="1">
-        <v>-311.101000</v>
+        <v>-311.101</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>52684.757178</v>
@@ -4486,43 +4902,43 @@
         <v>14.634655</v>
       </c>
       <c r="BA17" s="1">
-        <v>1442.900000</v>
+        <v>1442.9</v>
       </c>
       <c r="BB17" s="1">
-        <v>-362.875000</v>
+        <v>-362.875</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>52695.765354</v>
+        <v>52695.765354000003</v>
       </c>
       <c r="BE17" s="1">
         <v>14.637713</v>
       </c>
       <c r="BF17" s="1">
-        <v>1528.660000</v>
+        <v>1528.66</v>
       </c>
       <c r="BG17" s="1">
-        <v>-609.215000</v>
+        <v>-609.21500000000003</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>52706.611370</v>
+        <v>52706.611369999999</v>
       </c>
       <c r="BJ17" s="1">
         <v>14.640725</v>
       </c>
       <c r="BK17" s="1">
-        <v>1683.820000</v>
+        <v>1683.82</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1049.860000</v>
+        <v>-1049.8599999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>52717.101273</v>
@@ -4531,75 +4947,75 @@
         <v>14.643639</v>
       </c>
       <c r="BP17" s="1">
-        <v>1978.940000</v>
+        <v>1978.94</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1811.240000</v>
+        <v>-1811.24</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>52727.715664</v>
+        <v>52727.715664000003</v>
       </c>
       <c r="BT17" s="1">
-        <v>14.646588</v>
+        <v>14.646587999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>2369.280000</v>
+        <v>2369.2800000000002</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2686.890000</v>
+        <v>-2686.89</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>52738.567119</v>
+        <v>52738.567118999999</v>
       </c>
       <c r="BY17" s="1">
         <v>14.649602</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2849.440000</v>
+        <v>2849.44</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3642.640000</v>
+        <v>-3642.64</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>52751.098581</v>
+        <v>52751.098580999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>14.653083</v>
+        <v>14.653083000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>4273.320000</v>
+        <v>4273.32</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5931.000000</v>
+        <v>-5931</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>52579.528899</v>
+        <v>52579.528898999997</v>
       </c>
       <c r="B18" s="1">
         <v>14.605425</v>
       </c>
       <c r="C18" s="1">
-        <v>1240.660000</v>
+        <v>1240.6600000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-302.350000</v>
+        <v>-302.35000000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>52590.316884</v>
@@ -4608,43 +5024,43 @@
         <v>14.608421</v>
       </c>
       <c r="H18" s="1">
-        <v>1265.600000</v>
+        <v>1265.5999999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-261.150000</v>
+        <v>-261.14999999999998</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>52600.737333</v>
+        <v>52600.737332999997</v>
       </c>
       <c r="L18" s="1">
         <v>14.611316</v>
       </c>
       <c r="M18" s="1">
-        <v>1300.790000</v>
+        <v>1300.79</v>
       </c>
       <c r="N18" s="1">
-        <v>-200.917000</v>
+        <v>-200.917</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>52611.287736</v>
+        <v>52611.287735999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>14.614247</v>
+        <v>14.614247000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1312.800000</v>
+        <v>1312.8</v>
       </c>
       <c r="S18" s="1">
-        <v>-183.326000</v>
+        <v>-183.32599999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>52621.830232</v>
@@ -4653,73 +5069,73 @@
         <v>14.617175</v>
       </c>
       <c r="W18" s="1">
-        <v>1326.000000</v>
+        <v>1326</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.140000</v>
+        <v>-170.14</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>52632.315166</v>
       </c>
       <c r="AA18" s="1">
-        <v>14.620088</v>
+        <v>14.620088000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1343.450000</v>
+        <v>1343.45</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.060000</v>
+        <v>-168.06</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>52643.093695</v>
+        <v>52643.093695000003</v>
       </c>
       <c r="AF18" s="1">
         <v>14.623082</v>
       </c>
       <c r="AG18" s="1">
-        <v>1356.370000</v>
+        <v>1356.37</v>
       </c>
       <c r="AH18" s="1">
-        <v>-177.898000</v>
+        <v>-177.898</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>52653.600944</v>
+        <v>52653.600943999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>14.626000</v>
+        <v>14.625999999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1377.020000</v>
+        <v>1377.02</v>
       </c>
       <c r="AM18" s="1">
-        <v>-207.760000</v>
+        <v>-207.76</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>52664.097810</v>
+        <v>52664.097809999999</v>
       </c>
       <c r="AP18" s="1">
         <v>14.628916</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1398.770000</v>
+        <v>1398.77</v>
       </c>
       <c r="AR18" s="1">
-        <v>-251.447000</v>
+        <v>-251.447</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>52674.427958</v>
@@ -4728,28 +5144,28 @@
         <v>14.631786</v>
       </c>
       <c r="AV18" s="1">
-        <v>1423.430000</v>
+        <v>1423.43</v>
       </c>
       <c r="AW18" s="1">
-        <v>-311.084000</v>
+        <v>-311.084</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>52685.113767</v>
+        <v>52685.113767000003</v>
       </c>
       <c r="AZ18" s="1">
-        <v>14.634754</v>
+        <v>14.634753999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1442.900000</v>
+        <v>1442.9</v>
       </c>
       <c r="BB18" s="1">
-        <v>-362.904000</v>
+        <v>-362.904</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>52696.489512</v>
@@ -4758,392 +5174,392 @@
         <v>14.637914</v>
       </c>
       <c r="BF18" s="1">
-        <v>1528.670000</v>
+        <v>1528.67</v>
       </c>
       <c r="BG18" s="1">
-        <v>-609.240000</v>
+        <v>-609.24</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>52707.023050</v>
+        <v>52707.023050000003</v>
       </c>
       <c r="BJ18" s="1">
-        <v>14.640840</v>
+        <v>14.640840000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1683.620000</v>
+        <v>1683.62</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1049.780000</v>
+        <v>-1049.78</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>52717.500553</v>
+        <v>52717.500552999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>14.643750</v>
+        <v>14.643750000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1978.770000</v>
+        <v>1978.77</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1811.140000</v>
+        <v>-1811.14</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>52728.128319</v>
+        <v>52728.128319000003</v>
       </c>
       <c r="BT18" s="1">
-        <v>14.646702</v>
+        <v>14.646701999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>2368.870000</v>
+        <v>2368.87</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2686.810000</v>
+        <v>-2686.81</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>52738.986736</v>
+        <v>52738.986735999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>14.649719</v>
+        <v>14.649718999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2850.210000</v>
+        <v>2850.21</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3642.530000</v>
+        <v>-3642.53</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>52751.955150</v>
+        <v>52751.955150000002</v>
       </c>
       <c r="CD18" s="1">
         <v>14.653321</v>
       </c>
       <c r="CE18" s="1">
-        <v>4259.400000</v>
+        <v>4259.3999999999996</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5942.540000</v>
+        <v>-5942.54</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>52579.872161</v>
+        <v>52579.872160999999</v>
       </c>
       <c r="B19" s="1">
-        <v>14.605520</v>
+        <v>14.60552</v>
       </c>
       <c r="C19" s="1">
-        <v>1240.960000</v>
+        <v>1240.96</v>
       </c>
       <c r="D19" s="1">
-        <v>-302.272000</v>
+        <v>-302.27199999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>52590.659650</v>
+        <v>52590.659650000001</v>
       </c>
       <c r="G19" s="1">
-        <v>14.608517</v>
+        <v>14.608517000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1265.650000</v>
+        <v>1265.6500000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-261.921000</v>
+        <v>-261.92099999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>52601.085567</v>
+        <v>52601.085567000002</v>
       </c>
       <c r="L19" s="1">
-        <v>14.611413</v>
+        <v>14.611413000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1300.810000</v>
+        <v>1300.81</v>
       </c>
       <c r="N19" s="1">
-        <v>-200.939000</v>
+        <v>-200.93899999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>52611.716807</v>
+        <v>52611.716806999997</v>
       </c>
       <c r="Q19" s="1">
         <v>14.614366</v>
       </c>
       <c r="R19" s="1">
-        <v>1312.790000</v>
+        <v>1312.79</v>
       </c>
       <c r="S19" s="1">
-        <v>-183.283000</v>
+        <v>-183.28299999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>52622.080187</v>
       </c>
       <c r="V19" s="1">
-        <v>14.617244</v>
+        <v>14.617243999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1325.760000</v>
+        <v>1325.76</v>
       </c>
       <c r="X19" s="1">
-        <v>-169.947000</v>
+        <v>-169.947</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>52632.614221</v>
+        <v>52632.614221000003</v>
       </c>
       <c r="AA19" s="1">
-        <v>14.620171</v>
+        <v>14.620170999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1343.390000</v>
+        <v>1343.39</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.183000</v>
+        <v>-168.18299999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>52643.436957</v>
+        <v>52643.436956999998</v>
       </c>
       <c r="AF19" s="1">
         <v>14.623177</v>
       </c>
       <c r="AG19" s="1">
-        <v>1356.330000</v>
+        <v>1356.33</v>
       </c>
       <c r="AH19" s="1">
-        <v>-177.831000</v>
+        <v>-177.83099999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>52653.949632</v>
+        <v>52653.949632000003</v>
       </c>
       <c r="AK19" s="1">
         <v>14.626097</v>
       </c>
       <c r="AL19" s="1">
-        <v>1377.020000</v>
+        <v>1377.02</v>
       </c>
       <c r="AM19" s="1">
-        <v>-207.750000</v>
+        <v>-207.75</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>52664.456882</v>
+        <v>52664.456881999999</v>
       </c>
       <c r="AP19" s="1">
         <v>14.629016</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1398.780000</v>
+        <v>1398.78</v>
       </c>
       <c r="AR19" s="1">
-        <v>-251.418000</v>
+        <v>-251.41800000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>52675.156084</v>
+        <v>52675.156084000002</v>
       </c>
       <c r="AU19" s="1">
         <v>14.631988</v>
       </c>
       <c r="AV19" s="1">
-        <v>1423.430000</v>
+        <v>1423.43</v>
       </c>
       <c r="AW19" s="1">
-        <v>-311.128000</v>
+        <v>-311.12799999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>52685.831975</v>
+        <v>52685.831975000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>14.634953</v>
+        <v>14.634952999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1442.860000</v>
+        <v>1442.86</v>
       </c>
       <c r="BB19" s="1">
-        <v>-362.881000</v>
+        <v>-362.88099999999997</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>52696.848614</v>
+        <v>52696.848614000002</v>
       </c>
       <c r="BE19" s="1">
         <v>14.638014</v>
       </c>
       <c r="BF19" s="1">
-        <v>1528.660000</v>
+        <v>1528.66</v>
       </c>
       <c r="BG19" s="1">
-        <v>-609.179000</v>
+        <v>-609.17899999999997</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>52707.398057</v>
+        <v>52707.398056999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>14.640944</v>
+        <v>14.640943999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1683.600000</v>
+        <v>1683.6</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1049.790000</v>
+        <v>-1049.79</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>52717.919164</v>
+        <v>52717.919163999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>14.643866</v>
+        <v>14.643865999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1978.840000</v>
+        <v>1978.84</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1811.270000</v>
+        <v>-1811.27</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>52728.874300</v>
+        <v>52728.874300000003</v>
       </c>
       <c r="BT19" s="1">
-        <v>14.646910</v>
+        <v>14.64691</v>
       </c>
       <c r="BU19" s="1">
-        <v>2368.660000</v>
+        <v>2368.66</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2686.320000</v>
+        <v>-2686.32</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>52739.706431</v>
+        <v>52739.706430999999</v>
       </c>
       <c r="BY19" s="1">
         <v>14.649918</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2849.810000</v>
+        <v>2849.81</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3642.230000</v>
+        <v>-3642.23</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>52752.178350</v>
+        <v>52752.178350000002</v>
       </c>
       <c r="CD19" s="1">
         <v>14.653383</v>
       </c>
       <c r="CE19" s="1">
-        <v>4259.780000</v>
+        <v>4259.78</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5940.290000</v>
+        <v>-5940.29</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>52580.211393</v>
+        <v>52580.211392999998</v>
       </c>
       <c r="B20" s="1">
-        <v>14.605614</v>
+        <v>14.605613999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1241.000000</v>
+        <v>1241</v>
       </c>
       <c r="D20" s="1">
-        <v>-302.151000</v>
+        <v>-302.15100000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>52591.084233</v>
+        <v>52591.084233000001</v>
       </c>
       <c r="G20" s="1">
         <v>14.608635</v>
       </c>
       <c r="H20" s="1">
-        <v>1265.560000</v>
+        <v>1265.56</v>
       </c>
       <c r="I20" s="1">
-        <v>-261.437000</v>
+        <v>-261.43700000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>52601.508116</v>
+        <v>52601.508115999997</v>
       </c>
       <c r="L20" s="1">
-        <v>14.611530</v>
+        <v>14.61153</v>
       </c>
       <c r="M20" s="1">
-        <v>1300.710000</v>
+        <v>1300.71</v>
       </c>
       <c r="N20" s="1">
-        <v>-201.001000</v>
+        <v>-201.001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>52611.996023</v>
@@ -5152,58 +5568,58 @@
         <v>14.614443</v>
       </c>
       <c r="R20" s="1">
-        <v>1312.800000</v>
+        <v>1312.8</v>
       </c>
       <c r="S20" s="1">
-        <v>-183.272000</v>
+        <v>-183.27199999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>52622.424409</v>
+        <v>52622.424408999999</v>
       </c>
       <c r="V20" s="1">
-        <v>14.617340</v>
+        <v>14.61734</v>
       </c>
       <c r="W20" s="1">
-        <v>1326.080000</v>
+        <v>1326.08</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.090000</v>
+        <v>-170.09</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>52632.960462</v>
+        <v>52632.960462000003</v>
       </c>
       <c r="AA20" s="1">
         <v>14.620267</v>
       </c>
       <c r="AB20" s="1">
-        <v>1343.350000</v>
+        <v>1343.35</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.157000</v>
+        <v>-168.15700000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>52643.779662</v>
+        <v>52643.779662000001</v>
       </c>
       <c r="AF20" s="1">
         <v>14.623272</v>
       </c>
       <c r="AG20" s="1">
-        <v>1356.330000</v>
+        <v>1356.33</v>
       </c>
       <c r="AH20" s="1">
-        <v>-177.994000</v>
+        <v>-177.994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>52654.298851</v>
@@ -5212,210 +5628,210 @@
         <v>14.626194</v>
       </c>
       <c r="AL20" s="1">
-        <v>1377.020000</v>
+        <v>1377.02</v>
       </c>
       <c r="AM20" s="1">
-        <v>-207.760000</v>
+        <v>-207.76</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>52665.177568</v>
+        <v>52665.177567999999</v>
       </c>
       <c r="AP20" s="1">
         <v>14.629216</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1398.730000</v>
+        <v>1398.73</v>
       </c>
       <c r="AR20" s="1">
-        <v>-251.437000</v>
+        <v>-251.43700000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>52675.519687</v>
       </c>
       <c r="AU20" s="1">
-        <v>14.632089</v>
+        <v>14.632089000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1423.420000</v>
+        <v>1423.42</v>
       </c>
       <c r="AW20" s="1">
-        <v>-311.098000</v>
+        <v>-311.09800000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>52686.190580</v>
+        <v>52686.190580000002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>14.635053</v>
+        <v>14.635052999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1442.870000</v>
+        <v>1442.87</v>
       </c>
       <c r="BB20" s="1">
-        <v>-362.887000</v>
+        <v>-362.887</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>52697.209734</v>
+        <v>52697.209733999996</v>
       </c>
       <c r="BE20" s="1">
         <v>14.638114</v>
       </c>
       <c r="BF20" s="1">
-        <v>1528.680000</v>
+        <v>1528.68</v>
       </c>
       <c r="BG20" s="1">
-        <v>-609.251000</v>
+        <v>-609.25099999999998</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>52708.121229</v>
+        <v>52708.121228999997</v>
       </c>
       <c r="BJ20" s="1">
         <v>14.641145</v>
       </c>
       <c r="BK20" s="1">
-        <v>1683.840000</v>
+        <v>1683.84</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1049.860000</v>
+        <v>-1049.8599999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>52718.619019</v>
+        <v>52718.619018999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>14.644061</v>
+        <v>14.644061000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1978.630000</v>
+        <v>1978.63</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1811.120000</v>
+        <v>-1811.12</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>52728.988907</v>
+        <v>52728.988906999999</v>
       </c>
       <c r="BT20" s="1">
         <v>14.646941</v>
       </c>
       <c r="BU20" s="1">
-        <v>2368.370000</v>
+        <v>2368.37</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2686.090000</v>
+        <v>-2686.09</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>52739.832414</v>
+        <v>52739.832413999997</v>
       </c>
       <c r="BY20" s="1">
         <v>14.649953</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2849.310000</v>
+        <v>2849.31</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3642.250000</v>
+        <v>-3642.25</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>52752.696158</v>
+        <v>52752.696157999999</v>
       </c>
       <c r="CD20" s="1">
         <v>14.653527</v>
       </c>
       <c r="CE20" s="1">
-        <v>4270.760000</v>
+        <v>4270.76</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5932.540000</v>
+        <v>-5932.54</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>52580.633520</v>
+        <v>52580.633520000003</v>
       </c>
       <c r="B21" s="1">
         <v>14.605732</v>
       </c>
       <c r="C21" s="1">
-        <v>1240.520000</v>
+        <v>1240.52</v>
       </c>
       <c r="D21" s="1">
-        <v>-302.313000</v>
+        <v>-302.31299999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>52591.359475</v>
+        <v>52591.359474999997</v>
       </c>
       <c r="G21" s="1">
         <v>14.608711</v>
       </c>
       <c r="H21" s="1">
-        <v>1266.430000</v>
+        <v>1266.43</v>
       </c>
       <c r="I21" s="1">
-        <v>-261.284000</v>
+        <v>-261.28399999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>52601.800261</v>
+        <v>52601.800260999997</v>
       </c>
       <c r="L21" s="1">
         <v>14.611611</v>
       </c>
       <c r="M21" s="1">
-        <v>1301.080000</v>
+        <v>1301.08</v>
       </c>
       <c r="N21" s="1">
-        <v>-201.105000</v>
+        <v>-201.10499999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>52612.345208</v>
+        <v>52612.345207999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>14.614540</v>
+        <v>14.61454</v>
       </c>
       <c r="R21" s="1">
-        <v>1312.780000</v>
+        <v>1312.78</v>
       </c>
       <c r="S21" s="1">
-        <v>-183.243000</v>
+        <v>-183.24299999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>52622.769624</v>
@@ -5424,13 +5840,13 @@
         <v>14.617436</v>
       </c>
       <c r="W21" s="1">
-        <v>1326.080000</v>
+        <v>1326.08</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.021000</v>
+        <v>-170.02099999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>52633.309147</v>
@@ -5439,602 +5855,602 @@
         <v>14.620364</v>
       </c>
       <c r="AB21" s="1">
-        <v>1343.430000</v>
+        <v>1343.43</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.154000</v>
+        <v>-168.154</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>52644.467117</v>
       </c>
       <c r="AF21" s="1">
-        <v>14.623463</v>
+        <v>14.623462999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1356.140000</v>
+        <v>1356.14</v>
       </c>
       <c r="AH21" s="1">
-        <v>-177.762000</v>
+        <v>-177.762</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>52655.028962</v>
+        <v>52655.028961999997</v>
       </c>
       <c r="AK21" s="1">
-        <v>14.626397</v>
+        <v>14.626397000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1377.010000</v>
+        <v>1377.01</v>
       </c>
       <c r="AM21" s="1">
-        <v>-207.783000</v>
+        <v>-207.78299999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>52665.537206</v>
+        <v>52665.537206000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>14.629316</v>
+        <v>14.629315999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1398.770000</v>
+        <v>1398.77</v>
       </c>
       <c r="AR21" s="1">
-        <v>-251.448000</v>
+        <v>-251.44800000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>52675.886195</v>
+        <v>52675.886194999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>14.632191</v>
+        <v>14.632191000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1423.420000</v>
+        <v>1423.42</v>
       </c>
       <c r="AW21" s="1">
-        <v>-311.081000</v>
+        <v>-311.08100000000002</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>52686.548692</v>
+        <v>52686.548691999997</v>
       </c>
       <c r="AZ21" s="1">
         <v>14.635152</v>
       </c>
       <c r="BA21" s="1">
-        <v>1442.910000</v>
+        <v>1442.91</v>
       </c>
       <c r="BB21" s="1">
-        <v>-362.858000</v>
+        <v>-362.858</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>52697.882774</v>
+        <v>52697.882773999998</v>
       </c>
       <c r="BE21" s="1">
         <v>14.638301</v>
       </c>
       <c r="BF21" s="1">
-        <v>1528.630000</v>
+        <v>1528.63</v>
       </c>
       <c r="BG21" s="1">
-        <v>-609.208000</v>
+        <v>-609.20799999999997</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>52708.550728</v>
+        <v>52708.550728000002</v>
       </c>
       <c r="BJ21" s="1">
         <v>14.641264</v>
       </c>
       <c r="BK21" s="1">
-        <v>1683.760000</v>
+        <v>1683.76</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1049.600000</v>
+        <v>-1049.5999999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>52718.752938</v>
+        <v>52718.752937999998</v>
       </c>
       <c r="BO21" s="1">
         <v>14.644098</v>
       </c>
       <c r="BP21" s="1">
-        <v>1978.810000</v>
+        <v>1978.81</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1811.140000</v>
+        <v>-1811.14</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>52729.424895</v>
+        <v>52729.424894999996</v>
       </c>
       <c r="BT21" s="1">
         <v>14.647062</v>
       </c>
       <c r="BU21" s="1">
-        <v>2368.100000</v>
+        <v>2368.1</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2685.540000</v>
+        <v>-2685.54</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>52740.271391</v>
+        <v>52740.271391000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>14.650075</v>
+        <v>14.650074999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2849.540000</v>
+        <v>2849.54</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3642.490000</v>
+        <v>-3642.49</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>52753.214972</v>
+        <v>52753.214972000002</v>
       </c>
       <c r="CD21" s="1">
-        <v>14.653671</v>
+        <v>14.653670999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4270.900000</v>
+        <v>4270.8999999999996</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5939.560000</v>
+        <v>-5939.56</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>52580.914257</v>
+        <v>52580.914256999997</v>
       </c>
       <c r="B22" s="1">
-        <v>14.605810</v>
+        <v>14.60581</v>
       </c>
       <c r="C22" s="1">
-        <v>1240.810000</v>
+        <v>1240.81</v>
       </c>
       <c r="D22" s="1">
-        <v>-302.719000</v>
+        <v>-302.71899999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>52591.703698</v>
+        <v>52591.703697999998</v>
       </c>
       <c r="G22" s="1">
-        <v>14.608807</v>
+        <v>14.608807000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1265.150000</v>
+        <v>1265.1500000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-261.936000</v>
+        <v>-261.93599999999998</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>52602.148948</v>
+        <v>52602.148948000002</v>
       </c>
       <c r="L22" s="1">
         <v>14.611708</v>
       </c>
       <c r="M22" s="1">
-        <v>1300.890000</v>
+        <v>1300.8900000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-200.792000</v>
+        <v>-200.792</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>52612.693417</v>
+        <v>52612.693417000002</v>
       </c>
       <c r="Q22" s="1">
         <v>14.614637</v>
       </c>
       <c r="R22" s="1">
-        <v>1312.840000</v>
+        <v>1312.84</v>
       </c>
       <c r="S22" s="1">
-        <v>-183.323000</v>
+        <v>-183.32300000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>52623.452649</v>
+        <v>52623.452648999999</v>
       </c>
       <c r="V22" s="1">
         <v>14.617626</v>
       </c>
       <c r="W22" s="1">
-        <v>1325.940000</v>
+        <v>1325.94</v>
       </c>
       <c r="X22" s="1">
-        <v>-169.964000</v>
+        <v>-169.964</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>52634.005993</v>
+        <v>52634.005992999999</v>
       </c>
       <c r="AA22" s="1">
         <v>14.620557</v>
       </c>
       <c r="AB22" s="1">
-        <v>1343.280000</v>
+        <v>1343.28</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.371000</v>
+        <v>-168.37100000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>52644.809853</v>
+        <v>52644.809852999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>14.623558</v>
+        <v>14.623557999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1356.340000</v>
+        <v>1356.34</v>
       </c>
       <c r="AH22" s="1">
-        <v>-177.890000</v>
+        <v>-177.89</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>52655.337438</v>
+        <v>52655.337438000002</v>
       </c>
       <c r="AK22" s="1">
         <v>14.626483</v>
       </c>
       <c r="AL22" s="1">
-        <v>1377.040000</v>
+        <v>1377.04</v>
       </c>
       <c r="AM22" s="1">
-        <v>-207.758000</v>
+        <v>-207.75800000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>52665.899249</v>
+        <v>52665.899249000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>14.629416</v>
+        <v>14.629416000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1398.740000</v>
+        <v>1398.74</v>
       </c>
       <c r="AR22" s="1">
-        <v>-251.441000</v>
+        <v>-251.441</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>52676.562738</v>
+        <v>52676.562738000001</v>
       </c>
       <c r="AU22" s="1">
         <v>14.632379</v>
       </c>
       <c r="AV22" s="1">
-        <v>1423.430000</v>
+        <v>1423.43</v>
       </c>
       <c r="AW22" s="1">
-        <v>-311.092000</v>
+        <v>-311.09199999999998</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>52687.224771</v>
+        <v>52687.224771000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>14.635340</v>
+        <v>14.635339999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1442.890000</v>
+        <v>1442.89</v>
       </c>
       <c r="BB22" s="1">
-        <v>-362.877000</v>
+        <v>-362.87700000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>52698.320773</v>
+        <v>52698.320772999999</v>
       </c>
       <c r="BE22" s="1">
         <v>14.638422</v>
       </c>
       <c r="BF22" s="1">
-        <v>1528.650000</v>
+        <v>1528.65</v>
       </c>
       <c r="BG22" s="1">
-        <v>-609.214000</v>
+        <v>-609.21400000000006</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>52708.952982</v>
+        <v>52708.952982000003</v>
       </c>
       <c r="BJ22" s="1">
-        <v>14.641376</v>
+        <v>14.641375999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1683.800000</v>
+        <v>1683.8</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1049.820000</v>
+        <v>-1049.82</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>52719.162660</v>
+        <v>52719.162660000002</v>
       </c>
       <c r="BO22" s="1">
         <v>14.644212</v>
       </c>
       <c r="BP22" s="1">
-        <v>1978.840000</v>
+        <v>1978.84</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1811.050000</v>
+        <v>-1811.05</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>52729.837531</v>
+        <v>52729.837530999997</v>
       </c>
       <c r="BT22" s="1">
-        <v>14.647177</v>
+        <v>14.647176999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>2367.820000</v>
+        <v>2367.8200000000002</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2685.590000</v>
+        <v>-2685.59</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>52740.828913</v>
+        <v>52740.828912999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>14.650230</v>
+        <v>14.650230000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2849.660000</v>
+        <v>2849.66</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3642.110000</v>
+        <v>-3642.11</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>52753.769501</v>
+        <v>52753.769501000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>14.653825</v>
+        <v>14.653824999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>4259.440000</v>
+        <v>4259.4399999999996</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5940.040000</v>
+        <v>-5940.04</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>52581.254479</v>
+        <v>52581.254479000003</v>
       </c>
       <c r="B23" s="1">
-        <v>14.605904</v>
+        <v>14.605904000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1240.820000</v>
+        <v>1240.82</v>
       </c>
       <c r="D23" s="1">
-        <v>-302.483000</v>
+        <v>-302.483</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>52592.051889</v>
+        <v>52592.051889000002</v>
       </c>
       <c r="G23" s="1">
         <v>14.608903</v>
       </c>
       <c r="H23" s="1">
-        <v>1265.930000</v>
+        <v>1265.93</v>
       </c>
       <c r="I23" s="1">
-        <v>-261.643000</v>
+        <v>-261.64299999999997</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>52602.490196</v>
+        <v>52602.490195999999</v>
       </c>
       <c r="L23" s="1">
         <v>14.611803</v>
       </c>
       <c r="M23" s="1">
-        <v>1300.750000</v>
+        <v>1300.75</v>
       </c>
       <c r="N23" s="1">
-        <v>-200.747000</v>
+        <v>-200.74700000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>52613.389285</v>
+        <v>52613.389284999997</v>
       </c>
       <c r="Q23" s="1">
-        <v>14.614830</v>
+        <v>14.61483</v>
       </c>
       <c r="R23" s="1">
-        <v>1312.840000</v>
+        <v>1312.84</v>
       </c>
       <c r="S23" s="1">
-        <v>-183.332000</v>
+        <v>-183.33199999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>52623.798823</v>
+        <v>52623.798822999997</v>
       </c>
       <c r="V23" s="1">
-        <v>14.617722</v>
+        <v>14.617722000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1325.990000</v>
+        <v>1325.99</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.105000</v>
+        <v>-170.10499999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>52634.351706</v>
+        <v>52634.351706000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>14.620653</v>
+        <v>14.620653000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1343.440000</v>
+        <v>1343.44</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.109000</v>
+        <v>-168.10900000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>52645.154603</v>
+        <v>52645.154603000003</v>
       </c>
       <c r="AF23" s="1">
         <v>14.623654</v>
       </c>
       <c r="AG23" s="1">
-        <v>1356.530000</v>
+        <v>1356.53</v>
       </c>
       <c r="AH23" s="1">
-        <v>-177.988000</v>
+        <v>-177.988</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>52656.011998</v>
+        <v>52656.011998000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>14.626670</v>
+        <v>14.626670000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1377.050000</v>
+        <v>1377.05</v>
       </c>
       <c r="AM23" s="1">
-        <v>-207.752000</v>
+        <v>-207.75200000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>52666.563392</v>
+        <v>52666.563391999996</v>
       </c>
       <c r="AP23" s="1">
-        <v>14.629601</v>
+        <v>14.629600999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1398.770000</v>
+        <v>1398.77</v>
       </c>
       <c r="AR23" s="1">
-        <v>-251.439000</v>
+        <v>-251.43899999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>52677.014594</v>
       </c>
       <c r="AU23" s="1">
-        <v>14.632504</v>
+        <v>14.632504000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1423.450000</v>
+        <v>1423.45</v>
       </c>
       <c r="AW23" s="1">
-        <v>-311.126000</v>
+        <v>-311.12599999999998</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>52687.625508</v>
+        <v>52687.625507999997</v>
       </c>
       <c r="AZ23" s="1">
-        <v>14.635452</v>
+        <v>14.635452000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1442.900000</v>
+        <v>1442.9</v>
       </c>
       <c r="BB23" s="1">
-        <v>-362.845000</v>
+        <v>-362.84500000000003</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>52698.678386</v>
@@ -6043,739 +6459,739 @@
         <v>14.638522</v>
       </c>
       <c r="BF23" s="1">
-        <v>1528.650000</v>
+        <v>1528.65</v>
       </c>
       <c r="BG23" s="1">
-        <v>-609.190000</v>
+        <v>-609.19000000000005</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>52709.329447</v>
+        <v>52709.329446999996</v>
       </c>
       <c r="BJ23" s="1">
-        <v>14.641480</v>
+        <v>14.64148</v>
       </c>
       <c r="BK23" s="1">
-        <v>1683.540000</v>
+        <v>1683.54</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1049.770000</v>
+        <v>-1049.77</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>52719.554968</v>
+        <v>52719.554967999997</v>
       </c>
       <c r="BO23" s="1">
         <v>14.644321</v>
       </c>
       <c r="BP23" s="1">
-        <v>1978.770000</v>
+        <v>1978.77</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1811.110000</v>
+        <v>-1811.11</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>52730.269050</v>
+        <v>52730.269050000003</v>
       </c>
       <c r="BT23" s="1">
         <v>14.647297</v>
       </c>
       <c r="BU23" s="1">
-        <v>2367.270000</v>
+        <v>2367.27</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2685.160000</v>
+        <v>-2685.16</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>52741.129487</v>
+        <v>52741.129486999998</v>
       </c>
       <c r="BY23" s="1">
         <v>14.650314</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2849.430000</v>
+        <v>2849.43</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3642.340000</v>
+        <v>-3642.34</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>52754.298234</v>
+        <v>52754.298234000002</v>
       </c>
       <c r="CD23" s="1">
         <v>14.653972</v>
       </c>
       <c r="CE23" s="1">
-        <v>4270.870000</v>
+        <v>4270.87</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5932.500000</v>
+        <v>-5932.5</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>52581.595728</v>
       </c>
       <c r="B24" s="1">
-        <v>14.605999</v>
+        <v>14.605999000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1240.720000</v>
+        <v>1240.72</v>
       </c>
       <c r="D24" s="1">
-        <v>-302.340000</v>
+        <v>-302.33999999999997</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>52592.743348</v>
+        <v>52592.743348000004</v>
       </c>
       <c r="G24" s="1">
         <v>14.609095</v>
       </c>
       <c r="H24" s="1">
-        <v>1264.670000</v>
+        <v>1264.67</v>
       </c>
       <c r="I24" s="1">
-        <v>-261.600000</v>
+        <v>-261.60000000000002</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>52603.180130</v>
+        <v>52603.180130000001</v>
       </c>
       <c r="L24" s="1">
-        <v>14.611994</v>
+        <v>14.611993999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1300.960000</v>
+        <v>1300.96</v>
       </c>
       <c r="N24" s="1">
-        <v>-201.162000</v>
+        <v>-201.16200000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>52613.737478</v>
+        <v>52613.737478000003</v>
       </c>
       <c r="Q24" s="1">
         <v>14.614927</v>
       </c>
       <c r="R24" s="1">
-        <v>1312.800000</v>
+        <v>1312.8</v>
       </c>
       <c r="S24" s="1">
-        <v>-183.360000</v>
+        <v>-183.36</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>52624.141577</v>
+        <v>52624.141577000002</v>
       </c>
       <c r="V24" s="1">
-        <v>14.617817</v>
+        <v>14.617817000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1326.010000</v>
+        <v>1326.01</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.002000</v>
+        <v>-170.00200000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>52634.703866</v>
+        <v>52634.703866000003</v>
       </c>
       <c r="AA24" s="1">
         <v>14.620751</v>
       </c>
       <c r="AB24" s="1">
-        <v>1343.550000</v>
+        <v>1343.55</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.089000</v>
+        <v>-168.089</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>52645.811290</v>
+        <v>52645.811289999998</v>
       </c>
       <c r="AF24" s="1">
-        <v>14.623836</v>
+        <v>14.623836000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1356.350000</v>
+        <v>1356.35</v>
       </c>
       <c r="AH24" s="1">
-        <v>-177.914000</v>
+        <v>-177.91399999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>52656.390941</v>
+        <v>52656.390940999998</v>
       </c>
       <c r="AK24" s="1">
         <v>14.626775</v>
       </c>
       <c r="AL24" s="1">
-        <v>1377.030000</v>
+        <v>1377.03</v>
       </c>
       <c r="AM24" s="1">
-        <v>-207.793000</v>
+        <v>-207.79300000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>52667.011278</v>
+        <v>52667.011277999998</v>
       </c>
       <c r="AP24" s="1">
-        <v>14.629725</v>
+        <v>14.629725000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1398.760000</v>
+        <v>1398.76</v>
       </c>
       <c r="AR24" s="1">
-        <v>-251.431000</v>
+        <v>-251.43100000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>52677.378657</v>
+        <v>52677.378657000001</v>
       </c>
       <c r="AU24" s="1">
         <v>14.632605</v>
       </c>
       <c r="AV24" s="1">
-        <v>1423.430000</v>
+        <v>1423.43</v>
       </c>
       <c r="AW24" s="1">
-        <v>-311.092000</v>
+        <v>-311.09199999999998</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>52688.013874</v>
+        <v>52688.013873999997</v>
       </c>
       <c r="AZ24" s="1">
-        <v>14.635559</v>
+        <v>14.635559000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1442.840000</v>
+        <v>1442.84</v>
       </c>
       <c r="BB24" s="1">
-        <v>-362.851000</v>
+        <v>-362.851</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>52699.039445</v>
+        <v>52699.039445000002</v>
       </c>
       <c r="BE24" s="1">
         <v>14.638622</v>
       </c>
       <c r="BF24" s="1">
-        <v>1528.690000</v>
+        <v>1528.69</v>
       </c>
       <c r="BG24" s="1">
-        <v>-609.183000</v>
+        <v>-609.18299999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>52709.757991</v>
+        <v>52709.757990999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>14.641599</v>
+        <v>14.641598999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1683.630000</v>
+        <v>1683.63</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1049.650000</v>
+        <v>-1049.6500000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>52719.981032</v>
+        <v>52719.981032000003</v>
       </c>
       <c r="BO24" s="1">
         <v>14.644439</v>
       </c>
       <c r="BP24" s="1">
-        <v>1978.760000</v>
+        <v>1978.76</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1811.090000</v>
+        <v>-1811.09</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>52730.694654</v>
+        <v>52730.694653999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>14.647415</v>
+        <v>14.647415000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2367.000000</v>
+        <v>2367</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2685.230000</v>
+        <v>-2685.23</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>52741.564997</v>
+        <v>52741.564997000001</v>
       </c>
       <c r="BY24" s="1">
         <v>14.650435</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2849.770000</v>
+        <v>2849.77</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3642.500000</v>
+        <v>-3642.5</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>52754.815066</v>
+        <v>52754.815066000003</v>
       </c>
       <c r="CD24" s="1">
-        <v>14.654115</v>
+        <v>14.654114999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>4261.540000</v>
+        <v>4261.54</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5921.690000</v>
+        <v>-5921.69</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>52582.280244</v>
+        <v>52582.280244000001</v>
       </c>
       <c r="B25" s="1">
-        <v>14.606189</v>
+        <v>14.606189000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1240.940000</v>
+        <v>1240.94</v>
       </c>
       <c r="D25" s="1">
-        <v>-302.253000</v>
+        <v>-302.25299999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>52593.087074</v>
+        <v>52593.087074000003</v>
       </c>
       <c r="G25" s="1">
-        <v>14.609191</v>
+        <v>14.609190999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1265.790000</v>
+        <v>1265.79</v>
       </c>
       <c r="I25" s="1">
-        <v>-262.157000</v>
+        <v>-262.15699999999998</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>52603.526835</v>
+        <v>52603.526834999997</v>
       </c>
       <c r="L25" s="1">
-        <v>14.612091</v>
+        <v>14.612090999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1300.780000</v>
+        <v>1300.78</v>
       </c>
       <c r="N25" s="1">
-        <v>-201.149000</v>
+        <v>-201.149</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>52614.084711</v>
+        <v>52614.084711000003</v>
       </c>
       <c r="Q25" s="1">
         <v>14.615024</v>
       </c>
       <c r="R25" s="1">
-        <v>1312.720000</v>
+        <v>1312.72</v>
       </c>
       <c r="S25" s="1">
-        <v>-183.357000</v>
+        <v>-183.357</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>52624.802725</v>
+        <v>52624.802725000001</v>
       </c>
       <c r="V25" s="1">
         <v>14.618001</v>
       </c>
       <c r="W25" s="1">
-        <v>1325.930000</v>
+        <v>1325.93</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.041000</v>
+        <v>-170.041</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>52635.353623</v>
+        <v>52635.353623000003</v>
       </c>
       <c r="AA25" s="1">
         <v>14.620932</v>
       </c>
       <c r="AB25" s="1">
-        <v>1343.390000</v>
+        <v>1343.39</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.123000</v>
+        <v>-168.12299999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>52646.183769</v>
+        <v>52646.183769000003</v>
       </c>
       <c r="AF25" s="1">
-        <v>14.623940</v>
+        <v>14.623939999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1356.370000</v>
+        <v>1356.37</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.151000</v>
+        <v>-178.15100000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>52656.738636</v>
+        <v>52656.738636000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>14.626872</v>
+        <v>14.626872000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1377.000000</v>
+        <v>1377</v>
       </c>
       <c r="AM25" s="1">
-        <v>-207.767000</v>
+        <v>-207.767</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>52667.371870</v>
+        <v>52667.371870000003</v>
       </c>
       <c r="AP25" s="1">
         <v>14.629826</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1398.780000</v>
+        <v>1398.78</v>
       </c>
       <c r="AR25" s="1">
-        <v>-251.468000</v>
+        <v>-251.46799999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>52677.742224</v>
+        <v>52677.742224000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>14.632706</v>
+        <v>14.632706000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1423.430000</v>
+        <v>1423.43</v>
       </c>
       <c r="AW25" s="1">
-        <v>-311.093000</v>
+        <v>-311.09300000000002</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>52688.374467</v>
+        <v>52688.374467000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>14.635660</v>
+        <v>14.63566</v>
       </c>
       <c r="BA25" s="1">
-        <v>1442.870000</v>
+        <v>1442.87</v>
       </c>
       <c r="BB25" s="1">
-        <v>-362.836000</v>
+        <v>-362.83600000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>52699.461539</v>
+        <v>52699.461539000004</v>
       </c>
       <c r="BE25" s="1">
-        <v>14.638739</v>
+        <v>14.638738999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1528.660000</v>
+        <v>1528.66</v>
       </c>
       <c r="BG25" s="1">
-        <v>-609.162000</v>
+        <v>-609.16200000000003</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>52710.097253</v>
       </c>
       <c r="BJ25" s="1">
-        <v>14.641694</v>
+        <v>14.641693999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1683.810000</v>
+        <v>1683.81</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1049.800000</v>
+        <v>-1049.8</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>52720.377831</v>
+        <v>52720.377830999998</v>
       </c>
       <c r="BO25" s="1">
         <v>14.644549</v>
       </c>
       <c r="BP25" s="1">
-        <v>1978.810000</v>
+        <v>1978.81</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1811.100000</v>
+        <v>-1811.1</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>52731.110794</v>
       </c>
       <c r="BT25" s="1">
-        <v>14.647531</v>
+        <v>14.647531000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>2366.580000</v>
+        <v>2366.58</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2684.890000</v>
+        <v>-2684.89</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>52742.024236</v>
+        <v>52742.024235999997</v>
       </c>
       <c r="BY25" s="1">
-        <v>14.650562</v>
+        <v>14.650562000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2849.600000</v>
+        <v>2849.6</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3641.720000</v>
+        <v>-3641.72</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>52755.335401</v>
+        <v>52755.335400999997</v>
       </c>
       <c r="CD25" s="1">
-        <v>14.654260</v>
+        <v>14.654260000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>4250.280000</v>
+        <v>4250.28</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5932.820000</v>
+        <v>-5932.82</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>52582.623933</v>
+        <v>52582.623933000003</v>
       </c>
       <c r="B26" s="1">
         <v>14.606284</v>
       </c>
       <c r="C26" s="1">
-        <v>1240.760000</v>
+        <v>1240.76</v>
       </c>
       <c r="D26" s="1">
-        <v>-302.186000</v>
+        <v>-302.18599999999998</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>52593.434772</v>
+        <v>52593.434772000001</v>
       </c>
       <c r="G26" s="1">
         <v>14.609287</v>
       </c>
       <c r="H26" s="1">
-        <v>1265.680000</v>
+        <v>1265.68</v>
       </c>
       <c r="I26" s="1">
-        <v>-262.297000</v>
+        <v>-262.29700000000003</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>52604.185026</v>
+        <v>52604.185025999999</v>
       </c>
       <c r="L26" s="1">
-        <v>14.612274</v>
+        <v>14.612273999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1300.810000</v>
+        <v>1300.81</v>
       </c>
       <c r="N26" s="1">
-        <v>-201.221000</v>
+        <v>-201.221</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>52614.750803</v>
+        <v>52614.750803000003</v>
       </c>
       <c r="Q26" s="1">
         <v>14.615209</v>
       </c>
       <c r="R26" s="1">
-        <v>1312.770000</v>
+        <v>1312.77</v>
       </c>
       <c r="S26" s="1">
-        <v>-183.203000</v>
+        <v>-183.203</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>52625.174231</v>
+        <v>52625.174230999997</v>
       </c>
       <c r="V26" s="1">
-        <v>14.618104</v>
+        <v>14.618104000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1325.980000</v>
+        <v>1325.98</v>
       </c>
       <c r="X26" s="1">
-        <v>-169.965000</v>
+        <v>-169.965</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>52635.749463</v>
       </c>
       <c r="AA26" s="1">
-        <v>14.621042</v>
+        <v>14.621041999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1343.360000</v>
+        <v>1343.36</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.164000</v>
+        <v>-168.16399999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>52646.524558</v>
+        <v>52646.524557999997</v>
       </c>
       <c r="AF26" s="1">
-        <v>14.624035</v>
+        <v>14.624034999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1356.380000</v>
+        <v>1356.38</v>
       </c>
       <c r="AH26" s="1">
-        <v>-177.847000</v>
+        <v>-177.84700000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>52657.089804</v>
+        <v>52657.089804000003</v>
       </c>
       <c r="AK26" s="1">
-        <v>14.626969</v>
+        <v>14.626969000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1377.040000</v>
+        <v>1377.04</v>
       </c>
       <c r="AM26" s="1">
-        <v>-207.769000</v>
+        <v>-207.76900000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>52667.731469</v>
+        <v>52667.731468999998</v>
       </c>
       <c r="AP26" s="1">
         <v>14.629925</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1398.770000</v>
+        <v>1398.77</v>
       </c>
       <c r="AR26" s="1">
-        <v>-251.428000</v>
+        <v>-251.428</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>52678.170672</v>
@@ -6784,120 +7200,121 @@
         <v>14.632825</v>
       </c>
       <c r="AV26" s="1">
-        <v>1423.420000</v>
+        <v>1423.42</v>
       </c>
       <c r="AW26" s="1">
-        <v>-311.093000</v>
+        <v>-311.09300000000002</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>52688.788666</v>
       </c>
       <c r="AZ26" s="1">
-        <v>14.635775</v>
+        <v>14.635775000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1442.870000</v>
+        <v>1442.87</v>
       </c>
       <c r="BB26" s="1">
-        <v>-362.889000</v>
+        <v>-362.88900000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>52699.763134</v>
+        <v>52699.763134000001</v>
       </c>
       <c r="BE26" s="1">
         <v>14.638823</v>
       </c>
       <c r="BF26" s="1">
-        <v>1528.660000</v>
+        <v>1528.66</v>
       </c>
       <c r="BG26" s="1">
-        <v>-609.190000</v>
+        <v>-609.19000000000005</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>52710.481652</v>
+        <v>52710.481652000002</v>
       </c>
       <c r="BJ26" s="1">
-        <v>14.641800</v>
+        <v>14.6418</v>
       </c>
       <c r="BK26" s="1">
-        <v>1683.640000</v>
+        <v>1683.64</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1049.760000</v>
+        <v>-1049.76</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>52720.795464</v>
+        <v>52720.795464000003</v>
       </c>
       <c r="BO26" s="1">
         <v>14.644665</v>
       </c>
       <c r="BP26" s="1">
-        <v>1978.620000</v>
+        <v>1978.62</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1811.010000</v>
+        <v>-1811.01</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>52731.538808</v>
+        <v>52731.538807999998</v>
       </c>
       <c r="BT26" s="1">
-        <v>14.647650</v>
+        <v>14.647650000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>2366.390000</v>
+        <v>2366.39</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2685.090000</v>
+        <v>-2685.09</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>52742.471162</v>
+        <v>52742.471162000002</v>
       </c>
       <c r="BY26" s="1">
         <v>14.650686</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2849.090000</v>
+        <v>2849.09</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3641.280000</v>
+        <v>-3641.28</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>52755.851705</v>
+        <v>52755.851705000001</v>
       </c>
       <c r="CD26" s="1">
         <v>14.654403</v>
       </c>
       <c r="CE26" s="1">
-        <v>4263.680000</v>
+        <v>4263.68</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5943.570000</v>
+        <v>-5943.57</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>